--- a/pre_processed_data/Analysis.xlsx
+++ b/pre_processed_data/Analysis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="114">
   <si>
     <t>difference</t>
   </si>
@@ -361,19 +361,27 @@
     <t>Differences in sample size and results between original ABM and Surrogate per municipality</t>
   </si>
   <si>
-    <t>Differences in results for parameters regarding the percentage of cases that are optimal (in %)</t>
+    <t>Absolute value</t>
   </si>
   <si>
-    <t>Absolute value</t>
+    <t>Differences in results for parameters regarding the percentage of cases that are optimal (in % deviation of optimal results in relation to the mean)</t>
+  </si>
+  <si>
+    <t>Ampliação do parameter space via surrogate</t>
+  </si>
+  <si>
+    <t>(optimal-mean)/mean</t>
+  </si>
+  <si>
+    <t>% that enters the estate market</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -537,18 +545,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -559,7 +560,6 @@
     <xf numFmtId="12" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -579,6 +579,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
@@ -861,2431 +869,2863 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" style="45" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="45" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="45"/>
-    <col min="7" max="7" width="32.5703125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="45" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="45"/>
-    <col min="16" max="16" width="16.5703125" style="45" customWidth="1"/>
-    <col min="17" max="17" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="45"/>
-    <col min="24" max="24" width="9.85546875" style="45" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" style="45" customWidth="1"/>
-    <col min="26" max="26" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="45"/>
-    <col min="34" max="34" width="34.28515625" style="45" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="33" style="42" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="42"/>
+    <col min="7" max="7" width="32.5703125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="42" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="42"/>
+    <col min="16" max="16" width="16.5703125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="42"/>
+    <col min="24" max="24" width="9.85546875" style="42" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="42" customWidth="1"/>
+    <col min="26" max="26" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="42"/>
+    <col min="34" max="34" width="34.28515625" style="42" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="42" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="Y3" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AH3" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="H4" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="H4" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK4" s="45" t="s">
+      <c r="AK4" s="42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="48" t="s">
+      <c r="Z5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="48" t="s">
+      <c r="AA5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AC5" s="48" t="s">
+      <c r="AC5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AD5" s="48" t="s">
+      <c r="AD5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="48" t="s">
+      <c r="AE5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AI5" s="45" t="s">
+      <c r="AI5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AJ5" s="45" t="s">
+      <c r="AJ5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AK5" s="45" t="s">
+      <c r="AK5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AL5" s="45" t="s">
+      <c r="AL5" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>0.178651789044733</v>
       </c>
-      <c r="C6" s="51">
-        <v>-0.14245749712799188</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="C6" s="65">
+        <f>C40*$F$44</f>
+        <v>-14.245749712799199</v>
+      </c>
+      <c r="D6" s="65">
+        <f t="shared" ref="D6:E6" si="0">D40*$F$44</f>
+        <v>13.168131768538199</v>
+      </c>
+      <c r="E6" s="65">
+        <f t="shared" si="0"/>
+        <v>15.056045822043101</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0.38306047475021598</v>
+      </c>
+      <c r="I6" s="65">
+        <v>-0.196287175937785</v>
+      </c>
+      <c r="J6" s="65">
+        <v>8.6866693559898012E-2</v>
+      </c>
+      <c r="K6" s="65">
+        <v>7.9569474126831019E-2</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0.49915199999999998</v>
+      </c>
+      <c r="R6" s="50">
+        <v>3.7919826652220998E-3</v>
+      </c>
+      <c r="S6" s="50">
+        <v>0.21289707343654801</v>
+      </c>
+      <c r="T6" s="50">
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <v>0.78710292656345104</v>
+      </c>
+      <c r="V6" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="50">
+        <v>2.1826999999999999E-2</v>
+      </c>
+      <c r="AA6" s="50">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB6" s="50">
+        <v>0.264901269070417</v>
+      </c>
+      <c r="AC6" s="50">
+        <v>0.213675213675213</v>
+      </c>
+      <c r="AD6" s="50">
+        <v>0.735098730929582</v>
+      </c>
+      <c r="AE6" s="50">
+        <v>0.78632478632478597</v>
+      </c>
+      <c r="AH6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI6" s="51">
+        <v>-0.20094819278457601</v>
+      </c>
+      <c r="AJ6" s="51">
+        <v>-0.42033151725641399</v>
+      </c>
+      <c r="AK6" s="52">
+        <v>21.938332447183701</v>
+      </c>
+      <c r="AL6" s="53">
+        <f>AI6/AJ6</f>
+        <v>0.47807072402327611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="54">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65">
+        <f t="shared" ref="C7:E7" si="1">C41*$F$44</f>
+        <v>-90.577729178057226</v>
+      </c>
+      <c r="D7" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0.29213830538841501</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="65">
+        <v>0</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>0.50084799999999996</v>
+      </c>
+      <c r="R7" s="55">
+        <v>0.99620801733477704</v>
+      </c>
+      <c r="S7" s="55">
+        <v>0.21415080024278799</v>
+      </c>
+      <c r="T7" s="55">
+        <v>5.7821279680986E-2</v>
+      </c>
+      <c r="U7" s="55">
+        <v>0.78584919975721101</v>
+      </c>
+      <c r="V7" s="55">
+        <v>0.94217872031901395</v>
+      </c>
+      <c r="Y7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="56">
+        <v>2.1668E-2</v>
+      </c>
+      <c r="AA7" s="56">
+        <v>2.0043336944745301E-2</v>
+      </c>
+      <c r="AB7" s="56">
+        <v>0.77062949972309303</v>
+      </c>
+      <c r="AC7" s="56">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="AD7" s="56">
+        <v>0.229370500276906</v>
+      </c>
+      <c r="AE7" s="56">
+        <v>0.18918918918918901</v>
+      </c>
+      <c r="AH7" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" s="51">
+        <v>3.3290305046341402E-3</v>
+      </c>
+      <c r="AJ7" s="51">
+        <v>2.60684678403395E-4</v>
+      </c>
+      <c r="AK7" s="52">
+        <v>0.306834582623074</v>
+      </c>
+      <c r="AL7" s="53">
+        <f>AI7/AJ7</f>
+        <v>12.770334355756233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="57">
+        <v>0.298363636363636</v>
+      </c>
+      <c r="C8" s="65">
+        <f t="shared" ref="C8:E8" si="2">C42*$F$44</f>
+        <v>-1.1345195611400016</v>
+      </c>
+      <c r="D8" s="65">
+        <f t="shared" si="2"/>
+        <v>-0.89797671342489727</v>
+      </c>
+      <c r="E8" s="65">
+        <f t="shared" si="2"/>
+        <v>7.2351713859910021</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0.27123574578583098</v>
+      </c>
+      <c r="I8" s="65">
+        <v>-0.27123574578583098</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0.188344141661968</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0.17335559136934603</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>0.49971700000000002</v>
+      </c>
+      <c r="R8" s="56">
+        <v>3.7919826652220998E-3</v>
+      </c>
+      <c r="S8" s="56">
+        <v>0.21309060928485499</v>
+      </c>
+      <c r="T8" s="56">
+        <v>0</v>
+      </c>
+      <c r="U8" s="56">
+        <v>0.78690939071514399</v>
+      </c>
+      <c r="V8" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="56">
+        <v>2.1898000000000001E-2</v>
+      </c>
+      <c r="AA8" s="56">
+        <v>0.48672806067172197</v>
+      </c>
+      <c r="AB8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="56">
+        <v>1.05731775180856E-2</v>
+      </c>
+      <c r="AD8" s="56">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>0.98942682248191405</v>
+      </c>
+      <c r="AH8" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI8" s="51">
+        <v>4.4436383422505601E-3</v>
+      </c>
+      <c r="AJ8" s="51">
+        <v>1.74007275374245E-3</v>
+      </c>
+      <c r="AK8" s="52">
+        <v>0.27035655885081</v>
+      </c>
+      <c r="AL8" s="53">
+        <f>AI8/AJ8</f>
+        <v>2.5537083623046417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="47">
+        <v>0.19426289034132099</v>
+      </c>
+      <c r="C9" s="65">
+        <f t="shared" ref="C9:E9" si="3">C43*$F$44</f>
+        <v>-14.252916143347749</v>
+      </c>
+      <c r="D9" s="65">
+        <f t="shared" si="3"/>
+        <v>7.6711958199159991</v>
+      </c>
+      <c r="E9" s="65">
+        <f t="shared" si="3"/>
+        <v>8.9158559809736033</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="65">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65">
+        <v>0</v>
+      </c>
+      <c r="K9" s="65">
+        <v>0</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="55">
+        <v>0.50028300000000003</v>
+      </c>
+      <c r="R9" s="55">
+        <v>0.99620801733477704</v>
+      </c>
+      <c r="S9" s="55">
+        <v>0.21395889926301701</v>
+      </c>
+      <c r="T9" s="55">
+        <v>5.7821279680986E-2</v>
+      </c>
+      <c r="U9" s="55">
+        <v>0.78604110073698197</v>
+      </c>
+      <c r="V9" s="55">
+        <v>0.94217872031901395</v>
+      </c>
+      <c r="Y9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="56">
+        <v>2.1808999999999999E-2</v>
+      </c>
+      <c r="AA9" s="56">
+        <v>2.0043336944745301E-2</v>
+      </c>
+      <c r="AB9" s="56">
+        <v>0.41006006694483899</v>
+      </c>
+      <c r="AC9" s="56">
+        <v>0.32882882882882802</v>
+      </c>
+      <c r="AD9" s="56">
+        <v>0.58993993305516002</v>
+      </c>
+      <c r="AE9" s="56">
+        <v>0.67117117117117098</v>
+      </c>
+      <c r="AH9" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" s="51">
+        <v>2.6614523924003998E-3</v>
+      </c>
+      <c r="AJ9" s="51">
+        <v>1.8991649446137399E-4</v>
+      </c>
+      <c r="AK9" s="52">
+        <v>0.24715358979390201</v>
+      </c>
+      <c r="AL9" s="53">
+        <f>AI9/AJ9</f>
+        <v>14.013803276795935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="47">
+        <v>0.18634926538962199</v>
+      </c>
+      <c r="C10" s="65">
+        <f t="shared" ref="C10:E10" si="4">C44*$F$44</f>
+        <v>-15.0286707891922</v>
+      </c>
+      <c r="D10" s="65">
+        <f t="shared" si="4"/>
+        <v>10.012794231589</v>
+      </c>
+      <c r="E10" s="65">
+        <f t="shared" si="4"/>
+        <v>8.9084524564714993</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="47">
+        <v>9.6317050668594403E-2</v>
+      </c>
+      <c r="I10" s="65">
+        <v>-9.6317050668594403E-2</v>
+      </c>
+      <c r="J10" s="65">
+        <v>2.63733863029606E-2</v>
+      </c>
+      <c r="K10" s="65">
+        <v>0.38219992137739156</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>0.333534</v>
+      </c>
+      <c r="R10" s="50">
+        <v>1.8959913326110499E-3</v>
+      </c>
+      <c r="S10" s="50">
+        <v>0.21369335659932701</v>
+      </c>
+      <c r="T10" s="50">
+        <v>0</v>
+      </c>
+      <c r="U10" s="50">
+        <v>0.78630664340067202</v>
+      </c>
+      <c r="V10" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="56">
+        <v>2.1530000000000001E-2</v>
+      </c>
+      <c r="AA10" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB10" s="56">
+        <v>0.195448211797491</v>
+      </c>
+      <c r="AC10" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="56">
+        <v>0.80455178820250794</v>
+      </c>
+      <c r="AE10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="51">
+        <v>2.5661566034401698E-3</v>
+      </c>
+      <c r="AJ10" s="51">
+        <v>4.3976358761886201E-4</v>
+      </c>
+      <c r="AK10" s="52">
+        <v>0.21263930158212999</v>
+      </c>
+      <c r="AL10" s="53">
+        <f>AI10/AJ10</f>
+        <v>5.8353094155313014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="47">
+        <v>0.18465703971119099</v>
+      </c>
+      <c r="C11" s="65">
+        <f t="shared" ref="C11:E11" si="5">C45*$F$44</f>
+        <v>-14.77634776377729</v>
+      </c>
+      <c r="D11" s="65">
+        <f t="shared" si="5"/>
+        <v>10.110985404686398</v>
+      </c>
+      <c r="E11" s="65">
+        <f t="shared" si="5"/>
+        <v>8.9728663937356981</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0.38938825955384898</v>
+      </c>
+      <c r="I11" s="65">
+        <v>-0.20294242440479998</v>
+      </c>
+      <c r="J11" s="65">
+        <v>5.7344342016420025E-2</v>
+      </c>
+      <c r="K11" s="65">
+        <v>6.2726789046359033E-2</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>0.333177</v>
+      </c>
+      <c r="R11" s="56">
+        <v>1.8959913326110499E-3</v>
+      </c>
+      <c r="S11" s="56">
+        <v>0.21316297343453999</v>
+      </c>
+      <c r="T11" s="56">
+        <v>0</v>
+      </c>
+      <c r="U11" s="56">
+        <v>0.78683702656545895</v>
+      </c>
+      <c r="V11" s="56">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>2.1632999999999999E-2</v>
+      </c>
+      <c r="AA11" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB11" s="56">
+        <v>0.19100448389035199</v>
+      </c>
+      <c r="AC11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="56">
+        <v>0.80899551610964704</v>
+      </c>
+      <c r="AE11" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" s="51">
+        <v>2.2168936341919999E-3</v>
+      </c>
+      <c r="AJ11" s="51">
+        <v>2.8382670321701499E-4</v>
+      </c>
+      <c r="AK11" s="52">
+        <v>0.19330669309749801</v>
+      </c>
+      <c r="AL11" s="53">
+        <f>AI11/AJ11</f>
+        <v>7.8107296074145447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="47">
+        <v>0.18433179723502299</v>
+      </c>
+      <c r="C12" s="65">
+        <f t="shared" ref="C12:E12" si="6">C46*$F$44</f>
+        <v>-15.067252683261609</v>
+      </c>
+      <c r="D12" s="65">
+        <f t="shared" si="6"/>
+        <v>9.8349148112096021</v>
+      </c>
+      <c r="E12" s="65">
+        <f t="shared" si="6"/>
+        <v>9.825691392511601</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0.38075566920947101</v>
+      </c>
+      <c r="I12" s="65">
+        <v>-0.21923616978840801</v>
+      </c>
+      <c r="J12" s="65">
+        <v>6.7253896948391012E-2</v>
+      </c>
+      <c r="K12" s="65">
+        <v>6.9632428970497984E-2</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>0.333289</v>
+      </c>
+      <c r="R12" s="55">
+        <v>0.99620801733477704</v>
+      </c>
+      <c r="S12" s="55">
+        <v>0.213718424550465</v>
+      </c>
+      <c r="T12" s="55">
+        <v>5.7821279680986E-2</v>
+      </c>
+      <c r="U12" s="55">
+        <v>0.78628157544953403</v>
+      </c>
+      <c r="V12" s="55">
+        <v>0.94217872031901395</v>
+      </c>
+      <c r="Y12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="56">
+        <v>2.1649000000000002E-2</v>
+      </c>
+      <c r="AA12" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB12" s="56">
+        <v>0.18887708439188799</v>
+      </c>
+      <c r="AC12" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="56">
+        <v>0.81112291560811101</v>
+      </c>
+      <c r="AE12" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI12" s="51">
+        <v>2.2168936341923698E-3</v>
+      </c>
+      <c r="AJ12" s="51">
+        <v>8.1676918145030298E-4</v>
+      </c>
+      <c r="AK12" s="52">
+        <v>0.140012445274206</v>
+      </c>
+      <c r="AL12" s="53">
+        <f>AI12/AJ12</f>
+        <v>2.7142229218981111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="47">
+        <v>0.18144252441773101</v>
+      </c>
+      <c r="C13" s="65">
+        <f t="shared" ref="C13:E13" si="7">C47*$F$44</f>
+        <v>-14.331168329623573</v>
+      </c>
+      <c r="D13" s="65">
+        <f t="shared" si="7"/>
+        <v>10.1576343506797</v>
+      </c>
+      <c r="E13" s="65">
+        <f t="shared" si="7"/>
+        <v>10.8572159870081</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0.38316128344292499</v>
+      </c>
+      <c r="I13" s="65">
+        <v>-0.21308274336882599</v>
+      </c>
+      <c r="J13" s="65">
+        <v>6.0586813014464003E-2</v>
+      </c>
+      <c r="K13" s="65">
+        <v>6.6657965783244011E-2</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>0.25059199999999998</v>
+      </c>
+      <c r="R13" s="50">
+        <v>0.121885157096424</v>
+      </c>
+      <c r="S13" s="50">
+        <v>3.6194291916741103E-2</v>
+      </c>
+      <c r="T13" s="50">
+        <v>2.5925925925925901E-2</v>
+      </c>
+      <c r="U13" s="50">
+        <v>0.96380570808325805</v>
+      </c>
+      <c r="V13" s="50">
+        <v>0.97407407407407398</v>
+      </c>
+      <c r="Y13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="56">
+        <v>2.1676999999999998E-2</v>
+      </c>
+      <c r="AA13" s="56">
+        <v>2.0043336944745301E-2</v>
+      </c>
+      <c r="AB13" s="56">
+        <v>0.17949900816533601</v>
+      </c>
+      <c r="AC13" s="56">
+        <v>3.1531531531531501E-2</v>
+      </c>
+      <c r="AD13" s="56">
+        <v>0.82050099183466296</v>
+      </c>
+      <c r="AE13" s="56">
+        <v>0.96846846846846801</v>
+      </c>
+      <c r="AH13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" s="51">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="AJ13" s="51">
+        <v>-9.2064908381764201E-4</v>
+      </c>
+      <c r="AK13" s="52">
+        <v>9.2064908381742E-2</v>
+      </c>
+      <c r="AL13" s="53">
+        <f>AI13/AJ13</f>
+        <v>2.4118267082207033E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="57">
+        <v>0.1787719955073</v>
+      </c>
+      <c r="C14" s="65">
+        <f t="shared" ref="C14:E14" si="8">C48*$F$44</f>
+        <v>-14.895631065005391</v>
+      </c>
+      <c r="D14" s="65">
+        <f t="shared" si="8"/>
+        <v>10.291024748335397</v>
+      </c>
+      <c r="E14" s="65">
+        <f t="shared" si="8"/>
+        <v>9.0820480981728018</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="57">
+        <v>0.346875499467236</v>
+      </c>
+      <c r="I14" s="65">
+        <v>-0.23797679092034801</v>
+      </c>
+      <c r="J14" s="65">
+        <v>0.10149330858049699</v>
+      </c>
+      <c r="K14" s="65">
+        <v>0.10331607642096402</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>0.24932299999999999</v>
+      </c>
+      <c r="R14" s="56">
+        <v>0.634344528710725</v>
+      </c>
+      <c r="S14" s="56">
+        <v>0.178651789044733</v>
+      </c>
+      <c r="T14" s="56">
+        <v>3.9140335895246202E-2</v>
+      </c>
+      <c r="U14" s="56">
+        <v>0.821348210955266</v>
+      </c>
+      <c r="V14" s="56">
+        <v>0.96085966410475299</v>
+      </c>
+      <c r="Y14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="56">
+        <v>2.1832000000000001E-2</v>
+      </c>
+      <c r="AA14" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB14" s="56">
+        <v>0.191965921582997</v>
+      </c>
+      <c r="AC14" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="56">
+        <v>0.80803407841700203</v>
+      </c>
+      <c r="AE14" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="51">
+        <v>-5.4600983178325097E-4</v>
+      </c>
+      <c r="AK14" s="52">
+        <v>5.4600983178325097E-2</v>
+      </c>
+      <c r="AL14" s="53">
+        <f>AI14/AJ14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0.175924205833178</v>
+      </c>
+      <c r="C15" s="65">
+        <f t="shared" ref="C15:E15" si="9">C49*$F$44</f>
+        <v>-14.911703260337589</v>
+      </c>
+      <c r="D15" s="65">
+        <f t="shared" si="9"/>
+        <v>10.693399483324098</v>
+      </c>
+      <c r="E15" s="65">
+        <f t="shared" si="9"/>
+        <v>10.206807215909999</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0.37113573208225797</v>
+      </c>
+      <c r="I15" s="65">
+        <v>-0.23088341372159998</v>
+      </c>
+      <c r="J15" s="65">
+        <v>8.2740344077188999E-2</v>
+      </c>
+      <c r="K15" s="65">
+        <v>8.2972158837631038E-2</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>0.25007000000000001</v>
+      </c>
+      <c r="R15" s="56">
+        <v>0.121885157096424</v>
+      </c>
+      <c r="S15" s="56">
+        <v>0.31033310673011499</v>
+      </c>
+      <c r="T15" s="56">
+        <v>0.10370370370370301</v>
+      </c>
+      <c r="U15" s="56">
+        <v>0.68966689326988395</v>
+      </c>
+      <c r="V15" s="56">
+        <v>0.89629629629629604</v>
+      </c>
+      <c r="Y15" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="56">
+        <v>2.1746999999999999E-2</v>
+      </c>
+      <c r="AA15" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB15" s="56">
+        <v>0.192532303306203</v>
+      </c>
+      <c r="AC15" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="56">
+        <v>0.80746769669379603</v>
+      </c>
+      <c r="AE15" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI15" s="53">
+        <v>-1.56911520813662E-13</v>
+      </c>
+      <c r="AJ15" s="53">
+        <v>-1.9483850278857899E-4</v>
+      </c>
+      <c r="AK15" s="52">
+        <v>1.9483850263166801E-2</v>
+      </c>
+      <c r="AL15" s="53">
+        <f>AI15/AJ15</f>
+        <v>8.053414421066872E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0.175720014582573</v>
+      </c>
+      <c r="C16" s="65">
+        <f t="shared" ref="C16:E16" si="10">C50*$F$44</f>
+        <v>-13.624149824030349</v>
+      </c>
+      <c r="D16" s="65">
+        <f t="shared" si="10"/>
+        <v>10.7305748253166</v>
+      </c>
+      <c r="E16" s="65">
+        <f t="shared" si="10"/>
+        <v>10.387182215212002</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0.37752758699532601</v>
+      </c>
+      <c r="I16" s="65">
+        <v>-0.21810039164345901</v>
+      </c>
+      <c r="J16" s="65">
+        <v>7.4189394537323983E-2</v>
+      </c>
+      <c r="K16" s="65">
+        <v>7.3814661778266011E-2</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>0.25001499999999999</v>
+      </c>
+      <c r="R16" s="55">
+        <v>0.121885157096424</v>
+      </c>
+      <c r="S16" s="55">
+        <v>0.32921224726516402</v>
+      </c>
+      <c r="T16" s="55">
+        <v>0.139259259259259</v>
+      </c>
+      <c r="U16" s="55">
+        <v>0.67078775273483504</v>
+      </c>
+      <c r="V16" s="55">
+        <v>0.86074074074074003</v>
+      </c>
+      <c r="Y16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="56">
+        <v>2.1763999999999999E-2</v>
+      </c>
+      <c r="AA16" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB16" s="56">
+        <v>0.195230656129387</v>
+      </c>
+      <c r="AC16" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="56">
+        <v>0.80476934387061205</v>
+      </c>
+      <c r="AE16" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI16" s="51">
+        <v>-2.2204460492503101E-16</v>
+      </c>
+      <c r="AJ16" s="51">
+        <v>-1.02039759648324E-4</v>
+      </c>
+      <c r="AK16" s="52">
+        <v>1.0203975964810199E-2</v>
+      </c>
+      <c r="AL16" s="53">
+        <f>AI16/AJ16</f>
+        <v>2.1760596623345543E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0.175627240143369</v>
+      </c>
+      <c r="C17" s="65">
+        <f t="shared" ref="C17:E17" si="11">C51*$F$44</f>
+        <v>-14.454294685391941</v>
+      </c>
+      <c r="D17" s="65">
+        <f t="shared" si="11"/>
+        <v>11.137570536473101</v>
+      </c>
+      <c r="E17" s="65">
+        <f t="shared" si="11"/>
+        <v>10.5933586176447</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0.38801909411303598</v>
+      </c>
+      <c r="I17" s="65">
+        <v>-0.19951862421720198</v>
+      </c>
+      <c r="J17" s="65">
+        <v>5.818510721391601E-2</v>
+      </c>
+      <c r="K17" s="65">
+        <v>6.3759807773653032E-2</v>
+      </c>
+      <c r="Y17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="56">
+        <v>2.1644E-2</v>
+      </c>
+      <c r="AA17" s="56">
+        <v>2.9794149512459298E-3</v>
+      </c>
+      <c r="AB17" s="56">
+        <v>0.19987063389391899</v>
+      </c>
+      <c r="AC17" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="56">
+        <v>0.80012936610607999</v>
+      </c>
+      <c r="AE17" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI17" s="51">
+        <v>-6.6315689740207998E-4</v>
+      </c>
+      <c r="AJ17" s="51">
+        <v>-7.5847239535126198E-4</v>
+      </c>
+      <c r="AK17" s="52">
+        <v>9.5315497949181194E-3</v>
+      </c>
+      <c r="AL17" s="53">
+        <f>AI17/AJ17</f>
+        <v>0.87433227823006043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="47">
+        <v>0.175390266299357</v>
+      </c>
+      <c r="C18" s="65">
+        <f t="shared" ref="C18:E18" si="12">C52*$F$44</f>
+        <v>-14.2111488339728</v>
+      </c>
+      <c r="D18" s="65">
+        <f t="shared" si="12"/>
+        <v>10.547562986648401</v>
+      </c>
+      <c r="E18" s="65">
+        <f t="shared" si="12"/>
+        <v>9.5929009684967976</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="47">
+        <v>0.39563217737890399</v>
+      </c>
+      <c r="I18" s="65">
+        <v>-0.17414323814910998</v>
+      </c>
+      <c r="J18" s="65">
+        <v>5.502704170503403E-2</v>
+      </c>
+      <c r="K18" s="65">
+        <v>4.883095944904603E-2</v>
+      </c>
+      <c r="Y18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="56">
+        <v>2.1805000000000001E-2</v>
+      </c>
+      <c r="AA18" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB18" s="56">
+        <v>0.18798440724604401</v>
+      </c>
+      <c r="AC18" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="56">
+        <v>0.81201559275395496</v>
+      </c>
+      <c r="AE18" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI18" s="53">
+        <v>-4.7377326565152501E-4</v>
+      </c>
+      <c r="AJ18" s="53">
+        <v>1.28180751065556E-4</v>
+      </c>
+      <c r="AK18" s="52">
+        <v>-6.0195401671708199E-2</v>
+      </c>
+      <c r="AL18" s="53">
+        <f>AI18/AJ18</f>
+        <v>-3.6961342612918631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="47">
+        <v>0.172969966629588</v>
+      </c>
+      <c r="C19" s="65">
+        <f t="shared" ref="C19:E19" si="13">C53*$F$44</f>
+        <v>-14.580901966684259</v>
+      </c>
+      <c r="D19" s="65">
+        <f t="shared" si="13"/>
+        <v>11.942233401202499</v>
+      </c>
+      <c r="E19" s="65">
+        <f t="shared" si="13"/>
+        <v>11.139984329844301</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="47">
+        <v>0.35271069784695602</v>
+      </c>
+      <c r="I19" s="65">
+        <v>-0.20711405123085602</v>
+      </c>
+      <c r="J19" s="65">
+        <v>0.10582432957636095</v>
+      </c>
+      <c r="K19" s="65">
+        <v>9.8553590938120994E-2</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="56">
+        <v>2.1805999999999999E-2</v>
+      </c>
+      <c r="AA19" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB19" s="56">
+        <v>0.192378244519856</v>
+      </c>
+      <c r="AC19" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="56">
+        <v>0.80762175548014303</v>
+      </c>
+      <c r="AE19" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI19" s="51">
+        <v>-4.7375967880737601E-3</v>
+      </c>
+      <c r="AJ19" s="51">
+        <v>-3.1768953138167398E-3</v>
+      </c>
+      <c r="AK19" s="52">
+        <v>-0.15607014742570099</v>
+      </c>
+      <c r="AL19" s="53">
+        <f>AI19/AJ19</f>
+        <v>1.4912662584345546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="47">
+        <v>0.17216937138593499</v>
+      </c>
+      <c r="C20" s="65">
+        <f t="shared" ref="C20:E20" si="14">C54*$F$44</f>
+        <v>-14.607122766235481</v>
+      </c>
+      <c r="D20" s="65">
+        <f t="shared" si="14"/>
+        <v>11.267911346254902</v>
+      </c>
+      <c r="E20" s="65">
+        <f t="shared" si="14"/>
+        <v>11.346699225042803</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="47">
+        <v>0.373643348384816</v>
+      </c>
+      <c r="I20" s="65">
+        <v>-0.19912830317577701</v>
+      </c>
+      <c r="J20" s="65">
+        <v>7.6587968056676003E-2</v>
+      </c>
+      <c r="K20" s="65">
+        <v>7.8863117793832982E-2</v>
+      </c>
+      <c r="Y20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="56">
+        <v>2.1597999999999999E-2</v>
+      </c>
+      <c r="AA20" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB20" s="56">
+        <v>0.19663857764607801</v>
+      </c>
+      <c r="AC20" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="56">
+        <v>0.80336142235392105</v>
+      </c>
+      <c r="AE20" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI20" s="51">
+        <v>-8.7703597638944392E-3</v>
+      </c>
+      <c r="AJ20" s="51">
+        <v>-5.5350610284413499E-3</v>
+      </c>
+      <c r="AK20" s="52">
+        <v>-0.32352987354530799</v>
+      </c>
+      <c r="AL20" s="53">
+        <f>AI20/AJ20</f>
+        <v>1.58451003861183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="47">
+        <v>0.17214771265845999</v>
+      </c>
+      <c r="C21" s="65">
+        <f t="shared" ref="C21:E21" si="15">C55*$F$44</f>
+        <v>-14.787133544090638</v>
+      </c>
+      <c r="D21" s="65">
+        <f t="shared" si="15"/>
+        <v>10.603543217919</v>
+      </c>
+      <c r="E21" s="65">
+        <f t="shared" si="15"/>
+        <v>11.055034414273498</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0.38775454318824898</v>
+      </c>
+      <c r="I21" s="65">
+        <v>-0.20740398477939298</v>
+      </c>
+      <c r="J21" s="65">
+        <v>6.2503528904828021E-2</v>
+      </c>
+      <c r="K21" s="65">
+        <v>6.2548053389641034E-2</v>
+      </c>
+      <c r="Y21" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="56">
+        <v>2.1717E-2</v>
+      </c>
+      <c r="AA21" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB21" s="56">
+        <v>0.19417967490905699</v>
+      </c>
+      <c r="AC21" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="56">
+        <v>0.80582032509094204</v>
+      </c>
+      <c r="AE21" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI21" s="51">
+        <v>-5.6558039319499097E-3</v>
+      </c>
+      <c r="AJ21" s="51">
+        <v>-8.4289301457955604E-4</v>
+      </c>
+      <c r="AK21" s="52">
+        <v>-0.48129109173703499</v>
+      </c>
+      <c r="AL21" s="53">
+        <f>AI21/AJ21</f>
+        <v>6.7099902764896973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="47">
+        <v>0.17182067703568099</v>
+      </c>
+      <c r="C22" s="65">
+        <f t="shared" ref="C22:E22" si="16">C56*$F$44</f>
+        <v>-14.972425629061171</v>
+      </c>
+      <c r="D22" s="65">
+        <f t="shared" si="16"/>
+        <v>11.861253596070803</v>
+      </c>
+      <c r="E22" s="65">
+        <f t="shared" si="16"/>
+        <v>10.986437087608902</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="47">
+        <v>0.378221307270945</v>
+      </c>
+      <c r="I22" s="65">
+        <v>-0.21566906975071701</v>
+      </c>
+      <c r="J22" s="65">
+        <v>7.2892449036184026E-2</v>
+      </c>
+      <c r="K22" s="65">
+        <v>7.6640257567313019E-2</v>
+      </c>
+      <c r="Y22" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="56">
+        <v>2.1580999999999999E-2</v>
+      </c>
+      <c r="AA22" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB22" s="56">
+        <v>0.19901765441823799</v>
+      </c>
+      <c r="AC22" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="56">
+        <v>0.80098234558176096</v>
+      </c>
+      <c r="AE22" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI22" s="51">
+        <v>-7.1376547705757597E-3</v>
+      </c>
+      <c r="AJ22" s="51">
+        <v>-1.4755057040894599E-3</v>
+      </c>
+      <c r="AK22" s="52">
+        <v>-0.56621490664862906</v>
+      </c>
+      <c r="AL22" s="53">
+        <f>AI22/AJ22</f>
+        <v>4.8374294662455632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="57">
+        <v>0.170228863249479</v>
+      </c>
+      <c r="C23" s="65">
+        <f t="shared" ref="C23:E23" si="17">C57*$F$44</f>
+        <v>-14.624630510994418</v>
+      </c>
+      <c r="D23" s="65">
+        <f t="shared" si="17"/>
+        <v>11.644873835431103</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="17"/>
+        <v>10.6859486444908</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="57">
+        <v>0.38538439868611202</v>
+      </c>
+      <c r="I23" s="65">
+        <v>-0.19387231009413403</v>
+      </c>
+      <c r="J23" s="65">
+        <v>6.8384449060448993E-2</v>
+      </c>
+      <c r="K23" s="65">
+        <v>6.5081125325722966E-2</v>
+      </c>
+      <c r="Y23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="56">
+        <v>2.1631999999999998E-2</v>
+      </c>
+      <c r="AA23" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB23" s="56">
+        <v>0.189765162721893</v>
+      </c>
+      <c r="AC23" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="56">
+        <v>0.81023483727810597</v>
+      </c>
+      <c r="AE23" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI23" s="51">
+        <v>-2.2251718559690398E-2</v>
+      </c>
+      <c r="AJ23" s="51">
+        <v>-1.6549303866844198E-2</v>
+      </c>
+      <c r="AK23" s="52">
+        <v>-0.57024146928462305</v>
+      </c>
+      <c r="AL23" s="53">
+        <f>AI23/AJ23</f>
+        <v>1.3445712725277066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="47">
+        <v>0.16774911857487401</v>
+      </c>
+      <c r="C24" s="65">
+        <f t="shared" ref="C24:E24" si="18">C58*$F$44</f>
+        <v>-13.630487725860352</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" si="18"/>
+        <v>11.955885509008501</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="18"/>
+        <v>11.478419042311799</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="47">
+        <v>0.377508778288555</v>
+      </c>
+      <c r="I24" s="65">
+        <v>-0.22360285011570299</v>
+      </c>
+      <c r="J24" s="65">
+        <v>7.2802075991046988E-2</v>
+      </c>
+      <c r="K24" s="65">
+        <v>7.059531984700701E-2</v>
+      </c>
+      <c r="Y24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="56">
+        <v>2.1977E-2</v>
+      </c>
+      <c r="AA24" s="56">
+        <v>2.0043336944745301E-2</v>
+      </c>
+      <c r="AB24" s="56">
+        <v>0.105246393957319</v>
+      </c>
+      <c r="AC24" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="56">
+        <v>0.89475360604268095</v>
+      </c>
+      <c r="AE24" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI24" s="53">
+        <v>-5.04115226337589E-2</v>
+      </c>
+      <c r="AJ24" s="53">
+        <v>-2.64881360031675E-2</v>
+      </c>
+      <c r="AK24" s="52">
+        <v>-2.3923386630591299</v>
+      </c>
+      <c r="AL24" s="53">
+        <f>AI24/AJ24</f>
+        <v>1.9031736558484371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="47">
+        <v>0.164950349393159</v>
+      </c>
+      <c r="C25" s="65">
+        <f t="shared" ref="C25:E25" si="19">C59*$F$44</f>
+        <v>-14.487668456811301</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="19"/>
+        <v>12.579854928525503</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" si="19"/>
+        <v>12.529620608182201</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="47">
+        <v>0.20986563660865201</v>
+      </c>
+      <c r="I25" s="65">
+        <v>-0.17104719143410391</v>
+      </c>
+      <c r="J25" s="65">
+        <v>0.181302990226445</v>
+      </c>
+      <c r="K25" s="65">
+        <v>0.17535861574689196</v>
+      </c>
+      <c r="Y25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25" s="56">
+        <v>2.1676999999999998E-2</v>
+      </c>
+      <c r="AA25" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB25" s="56">
+        <v>0.18918669557595599</v>
+      </c>
+      <c r="AC25" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="56">
+        <v>0.81081330442404298</v>
+      </c>
+      <c r="AE25" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI25" s="51">
+        <v>-6.4231935589180403E-2</v>
+      </c>
+      <c r="AJ25" s="51">
+        <v>-3.2556230465377603E-2</v>
+      </c>
+      <c r="AK25" s="52">
+        <v>-3.16757051238028</v>
+      </c>
+      <c r="AL25" s="53">
+        <f>AI25/AJ25</f>
+        <v>1.9729537072017225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="47">
+        <v>0.16210758215531401</v>
+      </c>
+      <c r="C26" s="65">
+        <f t="shared" ref="C26:E26" si="20">C60*$F$44</f>
+        <v>-14.340041416124111</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="20"/>
+        <v>12.149335596483702</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="20"/>
+        <v>12.151232734694799</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="47">
+        <v>0.375833736333341</v>
+      </c>
+      <c r="I26" s="65">
+        <v>-0.22283898137546698</v>
+      </c>
+      <c r="J26" s="65">
+        <v>7.1726758078354991E-2</v>
+      </c>
+      <c r="K26" s="65">
+        <v>7.6375899059904995E-2</v>
+      </c>
+      <c r="Y26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="56">
+        <v>2.1670999999999999E-2</v>
+      </c>
+      <c r="AA26" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB26" s="56">
+        <v>0.18273268423238401</v>
+      </c>
+      <c r="AC26" s="56">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AD26" s="56">
+        <v>0.81726731576761502</v>
+      </c>
+      <c r="AE26" s="56">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AH26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI26" s="51">
+        <v>-6.02702140323612E-2</v>
+      </c>
+      <c r="AJ26" s="51">
+        <v>-1.58329741238552E-2</v>
+      </c>
+      <c r="AK26" s="52">
+        <v>-4.4437239908506001</v>
+      </c>
+      <c r="AL26" s="53">
+        <f>AI26/AJ26</f>
+        <v>3.806626194225466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="47">
+        <v>0.15734720416124801</v>
+      </c>
+      <c r="C27" s="65">
+        <f t="shared" ref="C27:E27" si="21">C61*$F$44</f>
+        <v>-13.541737959984451</v>
+      </c>
+      <c r="D27" s="65">
+        <f t="shared" si="21"/>
+        <v>13.217976068322098</v>
+      </c>
+      <c r="E27" s="65">
+        <f t="shared" si="21"/>
+        <v>11.601685113829099</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="47">
+        <v>0.35745037140067198</v>
+      </c>
+      <c r="I27" s="65">
+        <v>-0.25630462049192498</v>
+      </c>
+      <c r="J27" s="65">
+        <v>9.4740172553331004E-2</v>
+      </c>
+      <c r="K27" s="65">
+        <v>9.5719793619731042E-2</v>
+      </c>
+      <c r="Y27" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="56">
+        <v>2.1686E-2</v>
+      </c>
+      <c r="AA27" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB27" s="56">
+        <v>0.179747302407082</v>
+      </c>
+      <c r="AC27" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="56">
+        <v>0.82025269759291697</v>
+      </c>
+      <c r="AE27" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI27" s="51">
+        <v>-4.67820487190721E-2</v>
+      </c>
+      <c r="AJ27" s="51">
+        <v>-1.3959338653965201E-3</v>
+      </c>
+      <c r="AK27" s="52">
+        <v>-4.5386114853675501</v>
+      </c>
+      <c r="AL27" s="53">
+        <f>AI27/AJ27</f>
+        <v>33.513083877926761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="47">
+        <v>0.15038702543309901</v>
+      </c>
+      <c r="C28" s="65">
+        <f t="shared" ref="C28:E28" si="22">C62*$F$44</f>
+        <v>-14.004970225573231</v>
+      </c>
+      <c r="D28" s="65">
+        <f t="shared" si="22"/>
+        <v>13.833874155353698</v>
+      </c>
+      <c r="E28" s="65">
+        <f t="shared" si="22"/>
+        <v>13.625011004124499</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="47">
+        <v>0.36412780929760302</v>
+      </c>
+      <c r="I28" s="65">
+        <v>-0.21767335441107602</v>
+      </c>
+      <c r="J28" s="65">
+        <v>8.1558345490408968E-2</v>
+      </c>
+      <c r="K28" s="65">
+        <v>8.9415023820063E-2</v>
+      </c>
+      <c r="Y28" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="56">
+        <v>2.1753999999999999E-2</v>
+      </c>
+      <c r="AA28" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB28" s="56">
+        <v>0.18952836259998099</v>
+      </c>
+      <c r="AC28" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="56">
+        <v>0.81047163740001804</v>
+      </c>
+      <c r="AE28" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI28" s="51">
+        <v>-5.8323414385334602E-2</v>
+      </c>
+      <c r="AJ28" s="51">
+        <v>-1.22380206361024E-2</v>
+      </c>
+      <c r="AK28" s="52">
+        <v>-4.60853937492322</v>
+      </c>
+      <c r="AL28" s="53">
+        <f>AI28/AJ28</f>
+        <v>4.7657555187706899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="47">
+        <v>0.145605920444033</v>
+      </c>
+      <c r="C29" s="65">
+        <f t="shared" ref="C29:E29" si="23">C63*$F$44</f>
+        <v>-12.39380398905006</v>
+      </c>
+      <c r="D29" s="65">
+        <f t="shared" si="23"/>
+        <v>13.907909710630797</v>
+      </c>
+      <c r="E29" s="65">
+        <f t="shared" si="23"/>
+        <v>15.503102223112601</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="47">
+        <v>0.45753991832353902</v>
+      </c>
+      <c r="I29" s="65">
+        <v>-5.1696546894260398E-3</v>
+      </c>
+      <c r="J29" s="65">
+        <v>2.5456437079059979E-2</v>
+      </c>
+      <c r="K29" s="65">
+        <v>-4.0635182107980339E-3</v>
+      </c>
+      <c r="Y29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z29" s="56">
+        <v>2.1713E-2</v>
+      </c>
+      <c r="AA29" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB29" s="56">
+        <v>0.185280707410307</v>
+      </c>
+      <c r="AC29" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="56">
+        <v>0.814719292589692</v>
+      </c>
+      <c r="AE29" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="47">
+        <v>0.14363093014568501</v>
+      </c>
+      <c r="C30" s="65">
+        <f t="shared" ref="C30:E30" si="24">C64*$F$44</f>
+        <v>-12.687624065378921</v>
+      </c>
+      <c r="D30" s="65">
+        <f t="shared" si="24"/>
+        <v>13.225054022190596</v>
+      </c>
+      <c r="E30" s="65">
+        <f t="shared" si="24"/>
+        <v>14.063118639089101</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="47">
+        <v>0.38030056637717502</v>
+      </c>
+      <c r="I30" s="65">
+        <v>-0.20093696667773603</v>
+      </c>
+      <c r="J30" s="65">
+        <v>6.4339879897847008E-2</v>
+      </c>
+      <c r="K30" s="65">
+        <v>6.9121556505988002E-2</v>
+      </c>
+      <c r="Y30" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z30" s="56">
+        <v>2.1912000000000001E-2</v>
+      </c>
+      <c r="AA30" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB30" s="56">
+        <v>0.310971157356699</v>
+      </c>
+      <c r="AC30" s="56">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="56">
+        <v>0.6890288426433</v>
+      </c>
+      <c r="AE30" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="47">
+        <v>0.13989253288864101</v>
+      </c>
+      <c r="C31" s="65">
+        <f t="shared" ref="C31:E31" si="25">C65*$F$44</f>
+        <v>-12.78895321384535</v>
+      </c>
+      <c r="D31" s="65">
+        <f t="shared" si="25"/>
+        <v>14.2558518597943</v>
+      </c>
+      <c r="E31" s="65">
+        <f t="shared" si="25"/>
+        <v>13.882617108779399</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="47">
+        <v>0.35071510667658901</v>
+      </c>
+      <c r="I31" s="65">
+        <v>-0.222364143018634</v>
+      </c>
+      <c r="J31" s="65">
+        <v>0.10034715691759399</v>
+      </c>
+      <c r="K31" s="65">
+        <v>9.624225669870401E-2</v>
+      </c>
+      <c r="Y31" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z31" s="56">
+        <v>2.1708999999999999E-2</v>
+      </c>
+      <c r="AA31" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB31" s="56">
+        <v>0.192592933806255</v>
+      </c>
+      <c r="AC31" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="56">
+        <v>0.80740706619374403</v>
+      </c>
+      <c r="AE31" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="47">
+        <v>7.9962894248608501E-2</v>
+      </c>
+      <c r="C32" s="65">
+        <f t="shared" ref="C32:E32" si="26">C66*$F$44</f>
+        <v>-7.9962894248608505</v>
+      </c>
+      <c r="D32" s="65">
+        <f t="shared" si="26"/>
+        <v>19.12609205253715</v>
+      </c>
+      <c r="E32" s="65">
+        <f t="shared" si="26"/>
+        <v>61.697955179455654</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0.38050271045420703</v>
+      </c>
+      <c r="I32" s="65">
+        <v>-0.20695715447495502</v>
+      </c>
+      <c r="J32" s="65">
+        <v>6.9257589485578974E-2</v>
+      </c>
+      <c r="K32" s="65">
+        <v>7.1860257501579983E-2</v>
+      </c>
+      <c r="Y32" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="56">
+        <v>2.1913999999999999E-2</v>
+      </c>
+      <c r="AA32" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB32" s="56">
+        <v>0.188144565118189</v>
+      </c>
+      <c r="AC32" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="56">
+        <v>0.81185543488181</v>
+      </c>
+      <c r="AE32" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="47">
+        <v>4.6175788910679201E-2</v>
+      </c>
+      <c r="C33" s="65">
+        <f t="shared" ref="C33:E33" si="27">C67*$F$44</f>
+        <v>-4.4666639693550367</v>
+      </c>
+      <c r="D33" s="65">
+        <f t="shared" si="27"/>
+        <v>13.507309282129382</v>
+      </c>
+      <c r="E33" s="65">
+        <f t="shared" si="27"/>
+        <v>14.23966827943218</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="47">
+        <v>0.36854947288399598</v>
+      </c>
+      <c r="I33" s="65">
+        <v>-0.23306069157825099</v>
+      </c>
+      <c r="J33" s="65">
+        <v>8.2205068342366017E-2</v>
+      </c>
+      <c r="K33" s="65">
+        <v>8.2195960833900017E-2</v>
+      </c>
+      <c r="Y33" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="56">
+        <v>2.1794999999999998E-2</v>
+      </c>
+      <c r="AA33" s="56">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB33" s="56">
+        <v>0.19431062170222499</v>
+      </c>
+      <c r="AC33" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="56">
+        <v>0.80568937829777398</v>
+      </c>
+      <c r="AE33" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="47">
+        <v>9.3646713183988192E-3</v>
+      </c>
+      <c r="C34" s="65">
+        <f t="shared" ref="C34:E34" si="28">C68*$F$44</f>
+        <v>-0.93646713183988195</v>
+      </c>
+      <c r="D34" s="65">
+        <f t="shared" si="28"/>
+        <v>63.562328495360418</v>
+      </c>
+      <c r="E34" s="65">
+        <f t="shared" si="28"/>
+        <v>97.534870447777919</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="47">
+        <v>0.380581779723702</v>
+      </c>
+      <c r="I34" s="65">
+        <v>-0.185851291382299</v>
+      </c>
+      <c r="J34" s="65">
+        <v>6.8216885120572002E-2</v>
+      </c>
+      <c r="K34" s="65">
+        <v>6.9887065377680024E-2</v>
+      </c>
+      <c r="Y34" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="55">
+        <v>2.2012E-2</v>
+      </c>
+      <c r="AA34" s="55">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="AB34" s="55">
+        <v>0.19203161911684499</v>
+      </c>
+      <c r="AC34" s="55">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="55">
+        <v>0.80796838088315404</v>
+      </c>
+      <c r="AE34" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="47">
+        <v>0</v>
+      </c>
+      <c r="C35" s="65">
+        <f t="shared" ref="C35:E35" si="29">C69*$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="47">
+        <v>0.37722451137045099</v>
+      </c>
+      <c r="I35" s="65">
+        <v>-0.23022733814822599</v>
+      </c>
+      <c r="J35" s="65">
+        <v>7.259609920082799E-2</v>
+      </c>
+      <c r="K35" s="65">
+        <v>7.6737779778277004E-2</v>
+      </c>
+      <c r="Y35" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="G36" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="Y36" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="G37" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="Y37" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="G38" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C40" s="66">
+        <v>-0.14245749712799199</v>
+      </c>
+      <c r="D40" s="66">
         <v>0.13168131768538199</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E40" s="66">
         <v>0.15056045822043101</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="50">
-        <v>0.38306047475021598</v>
-      </c>
-      <c r="I6" s="51">
-        <v>-0.196287175937785</v>
-      </c>
-      <c r="J6" s="51">
-        <v>8.6866693559898012E-2</v>
-      </c>
-      <c r="K6" s="51">
-        <v>7.9569474126831019E-2</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="54">
-        <v>0.49915199999999998</v>
-      </c>
-      <c r="R6" s="54">
-        <v>3.7919826652220998E-3</v>
-      </c>
-      <c r="S6" s="54">
-        <v>0.21289707343654801</v>
-      </c>
-      <c r="T6" s="54">
-        <v>0</v>
-      </c>
-      <c r="U6" s="54">
-        <v>0.78710292656345104</v>
-      </c>
-      <c r="V6" s="54">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="54">
-        <v>2.1826999999999999E-2</v>
-      </c>
-      <c r="AA6" s="54">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB6" s="54">
-        <v>0.264901269070417</v>
-      </c>
-      <c r="AC6" s="54">
-        <v>0.213675213675213</v>
-      </c>
-      <c r="AD6" s="54">
-        <v>0.735098730929582</v>
-      </c>
-      <c r="AE6" s="54">
-        <v>0.78632478632478597</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI6" s="55">
-        <v>2.5661566034401698E-3</v>
-      </c>
-      <c r="AJ6" s="55">
-        <v>4.3976358761886201E-4</v>
-      </c>
-      <c r="AK6" s="56">
-        <v>0.21263930158212999</v>
-      </c>
-      <c r="AL6" s="57">
-        <f>AI6/AJ6</f>
-        <v>5.8353094155313014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58">
-        <v>1</v>
-      </c>
-      <c r="C7" s="51">
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C41" s="66">
         <v>-0.90577729178057231</v>
       </c>
-      <c r="D7" s="51">
-        <v>0</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="50">
-        <v>0</v>
-      </c>
-      <c r="I7" s="51">
-        <v>0.29213830538841501</v>
-      </c>
-      <c r="J7" s="51">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51">
-        <v>0</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="59">
-        <v>0.50084799999999996</v>
-      </c>
-      <c r="R7" s="59">
-        <v>0.99620801733477704</v>
-      </c>
-      <c r="S7" s="59">
-        <v>0.21415080024278799</v>
-      </c>
-      <c r="T7" s="59">
-        <v>5.7821279680986E-2</v>
-      </c>
-      <c r="U7" s="59">
-        <v>0.78584919975721101</v>
-      </c>
-      <c r="V7" s="59">
-        <v>0.94217872031901395</v>
-      </c>
-      <c r="Y7" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="60">
-        <v>2.1668E-2</v>
-      </c>
-      <c r="AA7" s="60">
-        <v>2.0043336944745301E-2</v>
-      </c>
-      <c r="AB7" s="60">
-        <v>0.77062949972309303</v>
-      </c>
-      <c r="AC7" s="60">
-        <v>0.81081081081080997</v>
-      </c>
-      <c r="AD7" s="60">
-        <v>0.229370500276906</v>
-      </c>
-      <c r="AE7" s="60">
-        <v>0.18918918918918901</v>
-      </c>
-      <c r="AH7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI7" s="55">
-        <v>4.4436383422505601E-3</v>
-      </c>
-      <c r="AJ7" s="55">
-        <v>1.74007275374245E-3</v>
-      </c>
-      <c r="AK7" s="56">
-        <v>0.27035655885081</v>
-      </c>
-      <c r="AL7" s="57">
-        <f t="shared" ref="AL7:AL28" si="0">AI7/AJ7</f>
-        <v>2.5537083623046417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="61">
-        <v>7.9962894248608501E-2</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="D41" s="66">
+        <v>0</v>
+      </c>
+      <c r="E41" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C42" s="66">
+        <v>-1.1345195611400016E-2</v>
+      </c>
+      <c r="D42" s="66">
+        <v>-8.9797671342489727E-3</v>
+      </c>
+      <c r="E42" s="66">
+        <v>7.2351713859910016E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C43" s="66">
+        <v>-0.14252916143347749</v>
+      </c>
+      <c r="D43" s="66">
+        <v>7.6711958199159991E-2</v>
+      </c>
+      <c r="E43" s="66">
+        <v>8.9158559809736027E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C44" s="66">
+        <v>-0.150286707891922</v>
+      </c>
+      <c r="D44" s="66">
+        <v>0.10012794231589001</v>
+      </c>
+      <c r="E44" s="66">
+        <v>8.9084524564714995E-2</v>
+      </c>
+      <c r="F44" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C45" s="66">
+        <v>-0.14776347763777289</v>
+      </c>
+      <c r="D45" s="66">
+        <v>0.10110985404686398</v>
+      </c>
+      <c r="E45" s="66">
+        <v>8.9728663937356984E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C46" s="66">
+        <v>-0.15067252683261609</v>
+      </c>
+      <c r="D46" s="66">
+        <v>9.8349148112096024E-2</v>
+      </c>
+      <c r="E46" s="66">
+        <v>9.8256913925116013E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C47" s="66">
+        <v>-0.14331168329623573</v>
+      </c>
+      <c r="D47" s="66">
+        <v>0.10157634350679701</v>
+      </c>
+      <c r="E47" s="66">
+        <v>0.10857215987008101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C48" s="66">
+        <v>-0.14895631065005391</v>
+      </c>
+      <c r="D48" s="66">
+        <v>0.10291024748335398</v>
+      </c>
+      <c r="E48" s="66">
+        <v>9.0820480981728013E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="66">
+        <v>-0.14911703260337589</v>
+      </c>
+      <c r="D49" s="66">
+        <v>0.10693399483324098</v>
+      </c>
+      <c r="E49" s="66">
+        <v>0.10206807215909999</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="66">
+        <v>-0.13624149824030349</v>
+      </c>
+      <c r="D50" s="66">
+        <v>0.10730574825316599</v>
+      </c>
+      <c r="E50" s="66">
+        <v>0.10387182215212001</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="66">
+        <v>-0.14454294685391941</v>
+      </c>
+      <c r="D51" s="66">
+        <v>0.11137570536473101</v>
+      </c>
+      <c r="E51" s="66">
+        <v>0.10593358617644699</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="66">
+        <v>-0.142111488339728</v>
+      </c>
+      <c r="D52" s="66">
+        <v>0.10547562986648401</v>
+      </c>
+      <c r="E52" s="66">
+        <v>9.5929009684967981E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="66">
+        <v>-0.14580901966684259</v>
+      </c>
+      <c r="D53" s="66">
+        <v>0.11942233401202498</v>
+      </c>
+      <c r="E53" s="66">
+        <v>0.11139984329844302</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="66">
+        <v>-0.14607122766235481</v>
+      </c>
+      <c r="D54" s="66">
+        <v>0.11267911346254902</v>
+      </c>
+      <c r="E54" s="66">
+        <v>0.11346699225042803</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="66">
+        <v>-0.14787133544090639</v>
+      </c>
+      <c r="D55" s="66">
+        <v>0.10603543217919001</v>
+      </c>
+      <c r="E55" s="66">
+        <v>0.11055034414273499</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="66">
+        <v>-0.1497242562906117</v>
+      </c>
+      <c r="D56" s="66">
+        <v>0.11861253596070803</v>
+      </c>
+      <c r="E56" s="66">
+        <v>0.10986437087608902</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="66">
+        <v>-0.14624630510994419</v>
+      </c>
+      <c r="D57" s="66">
+        <v>0.11644873835431102</v>
+      </c>
+      <c r="E57" s="66">
+        <v>0.106859486444908</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="66">
+        <v>-0.13630487725860352</v>
+      </c>
+      <c r="D58" s="66">
+        <v>0.11955885509008501</v>
+      </c>
+      <c r="E58" s="66">
+        <v>0.11478419042311799</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="66">
+        <v>-0.14487668456811301</v>
+      </c>
+      <c r="D59" s="66">
+        <v>0.12579854928525502</v>
+      </c>
+      <c r="E59" s="66">
+        <v>0.12529620608182201</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="66">
+        <v>-0.14340041416124111</v>
+      </c>
+      <c r="D60" s="66">
+        <v>0.12149335596483701</v>
+      </c>
+      <c r="E60" s="66">
+        <v>0.121512327346948</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="66">
+        <v>-0.13541737959984451</v>
+      </c>
+      <c r="D61" s="66">
+        <v>0.13217976068322099</v>
+      </c>
+      <c r="E61" s="66">
+        <v>0.11601685113829099</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="66">
+        <v>-0.14004970225573232</v>
+      </c>
+      <c r="D62" s="66">
+        <v>0.13833874155353698</v>
+      </c>
+      <c r="E62" s="66">
+        <v>0.13625011004124499</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="66">
+        <v>-0.1239380398905006</v>
+      </c>
+      <c r="D63" s="66">
+        <v>0.13907909710630798</v>
+      </c>
+      <c r="E63" s="66">
+        <v>0.155031022231126</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="66">
+        <v>-0.12687624065378922</v>
+      </c>
+      <c r="D64" s="66">
+        <v>0.13225054022190597</v>
+      </c>
+      <c r="E64" s="66">
+        <v>0.14063118639089101</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="66">
+        <v>-0.1278895321384535</v>
+      </c>
+      <c r="D65" s="66">
+        <v>0.142558518597943</v>
+      </c>
+      <c r="E65" s="66">
+        <v>0.13882617108779399</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="66">
         <v>-7.9962894248608501E-2</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D66" s="66">
         <v>0.1912609205253715</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E66" s="66">
         <v>0.61697955179455655</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="61">
-        <v>0.27123574578583098</v>
-      </c>
-      <c r="I8" s="51">
-        <v>-0.27123574578583098</v>
-      </c>
-      <c r="J8" s="51">
-        <v>0.188344141661968</v>
-      </c>
-      <c r="K8" s="51">
-        <v>0.17335559136934603</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="60">
-        <v>0.49971700000000002</v>
-      </c>
-      <c r="R8" s="60">
-        <v>3.7919826652220998E-3</v>
-      </c>
-      <c r="S8" s="60">
-        <v>0.21309060928485499</v>
-      </c>
-      <c r="T8" s="60">
-        <v>0</v>
-      </c>
-      <c r="U8" s="60">
-        <v>0.78690939071514399</v>
-      </c>
-      <c r="V8" s="62">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="60">
-        <v>2.1898000000000001E-2</v>
-      </c>
-      <c r="AA8" s="60">
-        <v>0.48672806067172197</v>
-      </c>
-      <c r="AB8" s="60">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="60">
-        <v>1.05731775180856E-2</v>
-      </c>
-      <c r="AD8" s="60">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="60">
-        <v>0.98942682248191405</v>
-      </c>
-      <c r="AH8" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI8" s="55">
-        <v>2.2168936341923698E-3</v>
-      </c>
-      <c r="AJ8" s="55">
-        <v>8.1676918145030298E-4</v>
-      </c>
-      <c r="AK8" s="56">
-        <v>0.140012445274206</v>
-      </c>
-      <c r="AL8" s="57">
-        <f t="shared" si="0"/>
-        <v>2.7142229218981111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="50">
-        <v>0</v>
-      </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0</v>
-      </c>
-      <c r="E9" s="51">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="50">
-        <v>0</v>
-      </c>
-      <c r="I9" s="51">
-        <v>0</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0</v>
-      </c>
-      <c r="K9" s="51">
-        <v>0</v>
-      </c>
-      <c r="P9" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="59">
-        <v>0.50028300000000003</v>
-      </c>
-      <c r="R9" s="59">
-        <v>0.99620801733477704</v>
-      </c>
-      <c r="S9" s="59">
-        <v>0.21395889926301701</v>
-      </c>
-      <c r="T9" s="59">
-        <v>5.7821279680986E-2</v>
-      </c>
-      <c r="U9" s="59">
-        <v>0.78604110073698197</v>
-      </c>
-      <c r="V9" s="59">
-        <v>0.94217872031901395</v>
-      </c>
-      <c r="Y9" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="60">
-        <v>2.1808999999999999E-2</v>
-      </c>
-      <c r="AA9" s="60">
-        <v>2.0043336944745301E-2</v>
-      </c>
-      <c r="AB9" s="60">
-        <v>0.41006006694483899</v>
-      </c>
-      <c r="AC9" s="60">
-        <v>0.32882882882882802</v>
-      </c>
-      <c r="AD9" s="60">
-        <v>0.58993993305516002</v>
-      </c>
-      <c r="AE9" s="60">
-        <v>0.67117117117117098</v>
-      </c>
-      <c r="AH9" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI9" s="57">
-        <v>-1.56911520813662E-13</v>
-      </c>
-      <c r="AJ9" s="57">
-        <v>-1.9483850278857899E-4</v>
-      </c>
-      <c r="AK9" s="56">
-        <v>1.9483850263166801E-2</v>
-      </c>
-      <c r="AL9" s="57">
-        <f t="shared" si="0"/>
-        <v>8.053414421066872E-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="50">
-        <v>9.3646713183988192E-3</v>
-      </c>
-      <c r="C10" s="51">
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="66">
+        <v>-4.4666639693550364E-2</v>
+      </c>
+      <c r="D67" s="66">
+        <v>0.13507309282129382</v>
+      </c>
+      <c r="E67" s="66">
+        <v>0.1423966827943218</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="66">
         <v>-9.3646713183988192E-3</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D68" s="66">
         <v>0.63562328495360421</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E68" s="66">
         <v>0.97534870447777922</v>
       </c>
-      <c r="G10" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="50">
-        <v>9.6317050668594403E-2</v>
-      </c>
-      <c r="I10" s="51">
-        <v>-9.6317050668594403E-2</v>
-      </c>
-      <c r="J10" s="51">
-        <v>2.63733863029606E-2</v>
-      </c>
-      <c r="K10" s="51">
-        <v>0.38219992137739156</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="54">
-        <v>0.333534</v>
-      </c>
-      <c r="R10" s="54">
-        <v>1.8959913326110499E-3</v>
-      </c>
-      <c r="S10" s="54">
-        <v>0.21369335659932701</v>
-      </c>
-      <c r="T10" s="54">
-        <v>0</v>
-      </c>
-      <c r="U10" s="54">
-        <v>0.78630664340067202</v>
-      </c>
-      <c r="V10" s="54">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>2.1530000000000001E-2</v>
-      </c>
-      <c r="AA10" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB10" s="60">
-        <v>0.195448211797491</v>
-      </c>
-      <c r="AC10" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="60">
-        <v>0.80455178820250794</v>
-      </c>
-      <c r="AE10" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI10" s="55">
-        <v>2.2168936341919999E-3</v>
-      </c>
-      <c r="AJ10" s="55">
-        <v>2.8382670321701499E-4</v>
-      </c>
-      <c r="AK10" s="56">
-        <v>0.19330669309749801</v>
-      </c>
-      <c r="AL10" s="57">
-        <f t="shared" si="0"/>
-        <v>7.8107296074145447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="50">
-        <v>0.18634926538962199</v>
-      </c>
-      <c r="C11" s="51">
-        <v>-0.150286707891922</v>
-      </c>
-      <c r="D11" s="51">
-        <v>0.10012794231589001</v>
-      </c>
-      <c r="E11" s="51">
-        <v>8.9084524564714995E-2</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="50">
-        <v>0.38938825955384898</v>
-      </c>
-      <c r="I11" s="51">
-        <v>-0.20294242440479998</v>
-      </c>
-      <c r="J11" s="51">
-        <v>5.7344342016420025E-2</v>
-      </c>
-      <c r="K11" s="51">
-        <v>6.2726789046359033E-2</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="60">
-        <v>0.333177</v>
-      </c>
-      <c r="R11" s="60">
-        <v>1.8959913326110499E-3</v>
-      </c>
-      <c r="S11" s="60">
-        <v>0.21316297343453999</v>
-      </c>
-      <c r="T11" s="60">
-        <v>0</v>
-      </c>
-      <c r="U11" s="60">
-        <v>0.78683702656545895</v>
-      </c>
-      <c r="V11" s="60">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="60">
-        <v>2.1632999999999999E-2</v>
-      </c>
-      <c r="AA11" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB11" s="60">
-        <v>0.19100448389035199</v>
-      </c>
-      <c r="AC11" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="60">
-        <v>0.80899551610964704</v>
-      </c>
-      <c r="AE11" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI11" s="55">
-        <v>-6.6315689740207998E-4</v>
-      </c>
-      <c r="AJ11" s="55">
-        <v>-7.5847239535126198E-4</v>
-      </c>
-      <c r="AK11" s="56">
-        <v>9.5315497949181194E-3</v>
-      </c>
-      <c r="AL11" s="57">
-        <f t="shared" si="0"/>
-        <v>0.87433227823006043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="50">
-        <v>0.175924205833178</v>
-      </c>
-      <c r="C12" s="51">
-        <v>-0.14911703260337589</v>
-      </c>
-      <c r="D12" s="51">
-        <v>0.10693399483324098</v>
-      </c>
-      <c r="E12" s="51">
-        <v>0.10206807215909999</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="50">
-        <v>0.38075566920947101</v>
-      </c>
-      <c r="I12" s="51">
-        <v>-0.21923616978840801</v>
-      </c>
-      <c r="J12" s="51">
-        <v>6.7253896948391012E-2</v>
-      </c>
-      <c r="K12" s="51">
-        <v>6.9632428970497984E-2</v>
-      </c>
-      <c r="P12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="59">
-        <v>0.333289</v>
-      </c>
-      <c r="R12" s="59">
-        <v>0.99620801733477704</v>
-      </c>
-      <c r="S12" s="59">
-        <v>0.213718424550465</v>
-      </c>
-      <c r="T12" s="59">
-        <v>5.7821279680986E-2</v>
-      </c>
-      <c r="U12" s="59">
-        <v>0.78628157544953403</v>
-      </c>
-      <c r="V12" s="59">
-        <v>0.94217872031901395</v>
-      </c>
-      <c r="Y12" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="60">
-        <v>2.1649000000000002E-2</v>
-      </c>
-      <c r="AA12" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB12" s="60">
-        <v>0.18887708439188799</v>
-      </c>
-      <c r="AC12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="60">
-        <v>0.81112291560811101</v>
-      </c>
-      <c r="AE12" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" s="55">
-        <v>-4.67820487190721E-2</v>
-      </c>
-      <c r="AJ12" s="55">
-        <v>-1.3959338653965201E-3</v>
-      </c>
-      <c r="AK12" s="56">
-        <v>-4.5386114853675501</v>
-      </c>
-      <c r="AL12" s="57">
-        <f t="shared" si="0"/>
-        <v>33.513083877926761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="50">
-        <v>0.1787719955073</v>
-      </c>
-      <c r="C13" s="51">
-        <v>-0.14895631065005391</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0.10291024748335398</v>
-      </c>
-      <c r="E13" s="51">
-        <v>9.0820480981728013E-2</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0.38316128344292499</v>
-      </c>
-      <c r="I13" s="51">
-        <v>-0.21308274336882599</v>
-      </c>
-      <c r="J13" s="51">
-        <v>6.0586813014464003E-2</v>
-      </c>
-      <c r="K13" s="51">
-        <v>6.6657965783244011E-2</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="54">
-        <v>0.25059199999999998</v>
-      </c>
-      <c r="R13" s="54">
-        <v>0.121885157096424</v>
-      </c>
-      <c r="S13" s="54">
-        <v>3.6194291916741103E-2</v>
-      </c>
-      <c r="T13" s="54">
-        <v>2.5925925925925901E-2</v>
-      </c>
-      <c r="U13" s="54">
-        <v>0.96380570808325805</v>
-      </c>
-      <c r="V13" s="54">
-        <v>0.97407407407407398</v>
-      </c>
-      <c r="Y13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="60">
-        <v>2.1676999999999998E-2</v>
-      </c>
-      <c r="AA13" s="60">
-        <v>2.0043336944745301E-2</v>
-      </c>
-      <c r="AB13" s="60">
-        <v>0.17949900816533601</v>
-      </c>
-      <c r="AC13" s="60">
-        <v>3.1531531531531501E-2</v>
-      </c>
-      <c r="AD13" s="60">
-        <v>0.82050099183466296</v>
-      </c>
-      <c r="AE13" s="60">
-        <v>0.96846846846846801</v>
-      </c>
-      <c r="AH13" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="55">
-        <v>-5.4600983178325097E-4</v>
-      </c>
-      <c r="AK13" s="56">
-        <v>5.4600983178325097E-2</v>
-      </c>
-      <c r="AL13" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="61">
-        <v>0.13989253288864101</v>
-      </c>
-      <c r="C14" s="51">
-        <v>-0.1278895321384535</v>
-      </c>
-      <c r="D14" s="51">
-        <v>0.142558518597943</v>
-      </c>
-      <c r="E14" s="51">
-        <v>0.13882617108779399</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="61">
-        <v>0.346875499467236</v>
-      </c>
-      <c r="I14" s="51">
-        <v>-0.23797679092034801</v>
-      </c>
-      <c r="J14" s="51">
-        <v>0.10149330858049699</v>
-      </c>
-      <c r="K14" s="51">
-        <v>0.10331607642096402</v>
-      </c>
-      <c r="P14" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="60">
-        <v>0.24932299999999999</v>
-      </c>
-      <c r="R14" s="60">
-        <v>0.634344528710725</v>
-      </c>
-      <c r="S14" s="60">
-        <v>0.178651789044733</v>
-      </c>
-      <c r="T14" s="60">
-        <v>3.9140335895246202E-2</v>
-      </c>
-      <c r="U14" s="60">
-        <v>0.821348210955266</v>
-      </c>
-      <c r="V14" s="60">
-        <v>0.96085966410475299</v>
-      </c>
-      <c r="Y14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="60">
-        <v>2.1832000000000001E-2</v>
-      </c>
-      <c r="AA14" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB14" s="60">
-        <v>0.191965921582997</v>
-      </c>
-      <c r="AC14" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="60">
-        <v>0.80803407841700203</v>
-      </c>
-      <c r="AE14" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI14" s="55">
-        <v>-8.7703597638944392E-3</v>
-      </c>
-      <c r="AJ14" s="55">
-        <v>-5.5350610284413499E-3</v>
-      </c>
-      <c r="AK14" s="56">
-        <v>-0.32352987354530799</v>
-      </c>
-      <c r="AL14" s="57">
-        <f t="shared" si="0"/>
-        <v>1.58451003861183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="50">
-        <v>0.164950349393159</v>
-      </c>
-      <c r="C15" s="51">
-        <v>-0.14487668456811301</v>
-      </c>
-      <c r="D15" s="51">
-        <v>0.12579854928525502</v>
-      </c>
-      <c r="E15" s="51">
-        <v>0.12529620608182201</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="50">
-        <v>0.37113573208225797</v>
-      </c>
-      <c r="I15" s="51">
-        <v>-0.23088341372159998</v>
-      </c>
-      <c r="J15" s="51">
-        <v>8.2740344077188999E-2</v>
-      </c>
-      <c r="K15" s="51">
-        <v>8.2972158837631038E-2</v>
-      </c>
-      <c r="P15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="60">
-        <v>0.25007000000000001</v>
-      </c>
-      <c r="R15" s="60">
-        <v>0.121885157096424</v>
-      </c>
-      <c r="S15" s="60">
-        <v>0.31033310673011499</v>
-      </c>
-      <c r="T15" s="60">
-        <v>0.10370370370370301</v>
-      </c>
-      <c r="U15" s="60">
-        <v>0.68966689326988395</v>
-      </c>
-      <c r="V15" s="60">
-        <v>0.89629629629629604</v>
-      </c>
-      <c r="Y15" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="60">
-        <v>2.1746999999999999E-2</v>
-      </c>
-      <c r="AA15" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB15" s="60">
-        <v>0.192532303306203</v>
-      </c>
-      <c r="AC15" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="60">
-        <v>0.80746769669379603</v>
-      </c>
-      <c r="AE15" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15" s="55">
-        <v>-0.20094819278457601</v>
-      </c>
-      <c r="AJ15" s="55">
-        <v>-0.42033151725641399</v>
-      </c>
-      <c r="AK15" s="56">
-        <v>21.938332447183701</v>
-      </c>
-      <c r="AL15" s="57">
-        <f t="shared" si="0"/>
-        <v>0.47807072402327611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="50">
-        <v>0.17216937138593499</v>
-      </c>
-      <c r="C16" s="51">
-        <v>-0.14607122766235481</v>
-      </c>
-      <c r="D16" s="51">
-        <v>0.11267911346254902</v>
-      </c>
-      <c r="E16" s="51">
-        <v>0.11346699225042803</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="50">
-        <v>0.37752758699532601</v>
-      </c>
-      <c r="I16" s="51">
-        <v>-0.21810039164345901</v>
-      </c>
-      <c r="J16" s="51">
-        <v>7.4189394537323983E-2</v>
-      </c>
-      <c r="K16" s="51">
-        <v>7.3814661778266011E-2</v>
-      </c>
-      <c r="P16" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="59">
-        <v>0.25001499999999999</v>
-      </c>
-      <c r="R16" s="59">
-        <v>0.121885157096424</v>
-      </c>
-      <c r="S16" s="59">
-        <v>0.32921224726516402</v>
-      </c>
-      <c r="T16" s="59">
-        <v>0.139259259259259</v>
-      </c>
-      <c r="U16" s="59">
-        <v>0.67078775273483504</v>
-      </c>
-      <c r="V16" s="59">
-        <v>0.86074074074074003</v>
-      </c>
-      <c r="Y16" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="60">
-        <v>2.1763999999999999E-2</v>
-      </c>
-      <c r="AA16" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB16" s="60">
-        <v>0.195230656129387</v>
-      </c>
-      <c r="AC16" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="60">
-        <v>0.80476934387061205</v>
-      </c>
-      <c r="AE16" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI16" s="55">
-        <v>-5.8323414385334602E-2</v>
-      </c>
-      <c r="AJ16" s="55">
-        <v>-1.22380206361024E-2</v>
-      </c>
-      <c r="AK16" s="56">
-        <v>-4.60853937492322</v>
-      </c>
-      <c r="AL16" s="57">
-        <f t="shared" si="0"/>
-        <v>4.7657555187706899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="50">
-        <v>0.18465703971119099</v>
-      </c>
-      <c r="C17" s="51">
-        <v>-0.14776347763777289</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0.10110985404686398</v>
-      </c>
-      <c r="E17" s="51">
-        <v>8.9728663937356984E-2</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="50">
-        <v>0.38801909411303598</v>
-      </c>
-      <c r="I17" s="51">
-        <v>-0.19951862421720198</v>
-      </c>
-      <c r="J17" s="51">
-        <v>5.818510721391601E-2</v>
-      </c>
-      <c r="K17" s="51">
-        <v>6.3759807773653032E-2</v>
-      </c>
-      <c r="Y17" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="60">
-        <v>2.1644E-2</v>
-      </c>
-      <c r="AA17" s="60">
-        <v>2.9794149512459298E-3</v>
-      </c>
-      <c r="AB17" s="60">
-        <v>0.19987063389391899</v>
-      </c>
-      <c r="AC17" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="60">
-        <v>0.80012936610607999</v>
-      </c>
-      <c r="AE17" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI17" s="55">
-        <v>-5.6558039319499097E-3</v>
-      </c>
-      <c r="AJ17" s="55">
-        <v>-8.4289301457955604E-4</v>
-      </c>
-      <c r="AK17" s="56">
-        <v>-0.48129109173703499</v>
-      </c>
-      <c r="AL17" s="57">
-        <f t="shared" si="0"/>
-        <v>6.7099902764896973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="50">
-        <v>0.19426289034132099</v>
-      </c>
-      <c r="C18" s="51">
-        <v>-0.14252916143347749</v>
-      </c>
-      <c r="D18" s="51">
-        <v>7.6711958199159991E-2</v>
-      </c>
-      <c r="E18" s="51">
-        <v>8.9158559809736027E-2</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="50">
-        <v>0.39563217737890399</v>
-      </c>
-      <c r="I18" s="51">
-        <v>-0.17414323814910998</v>
-      </c>
-      <c r="J18" s="51">
-        <v>5.502704170503403E-2</v>
-      </c>
-      <c r="K18" s="51">
-        <v>4.883095944904603E-2</v>
-      </c>
-      <c r="Y18" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="60">
-        <v>2.1805000000000001E-2</v>
-      </c>
-      <c r="AA18" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB18" s="60">
-        <v>0.18798440724604401</v>
-      </c>
-      <c r="AC18" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="60">
-        <v>0.81201559275395496</v>
-      </c>
-      <c r="AE18" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI18" s="55">
-        <v>-4.7375967880737601E-3</v>
-      </c>
-      <c r="AJ18" s="55">
-        <v>-3.1768953138167398E-3</v>
-      </c>
-      <c r="AK18" s="56">
-        <v>-0.15607014742570099</v>
-      </c>
-      <c r="AL18" s="57">
-        <f t="shared" si="0"/>
-        <v>1.4912662584345546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="50">
-        <v>0.145605920444033</v>
-      </c>
-      <c r="C19" s="51">
-        <v>-0.1239380398905006</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0.13907909710630798</v>
-      </c>
-      <c r="E19" s="51">
-        <v>0.155031022231126</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="50">
-        <v>0.35271069784695602</v>
-      </c>
-      <c r="I19" s="51">
-        <v>-0.20711405123085602</v>
-      </c>
-      <c r="J19" s="51">
-        <v>0.10582432957636095</v>
-      </c>
-      <c r="K19" s="51">
-        <v>9.8553590938120994E-2</v>
-      </c>
-      <c r="Y19" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z19" s="60">
-        <v>2.1805999999999999E-2</v>
-      </c>
-      <c r="AA19" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB19" s="60">
-        <v>0.192378244519856</v>
-      </c>
-      <c r="AC19" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="60">
-        <v>0.80762175548014303</v>
-      </c>
-      <c r="AE19" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI19" s="55">
-        <v>-6.4231935589180403E-2</v>
-      </c>
-      <c r="AJ19" s="55">
-        <v>-3.2556230465377603E-2</v>
-      </c>
-      <c r="AK19" s="56">
-        <v>-3.16757051238028</v>
-      </c>
-      <c r="AL19" s="57">
-        <f t="shared" si="0"/>
-        <v>1.9729537072017225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50">
-        <v>0.16774911857487401</v>
-      </c>
-      <c r="C20" s="51">
-        <v>-0.13630487725860352</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0.11955885509008501</v>
-      </c>
-      <c r="E20" s="51">
-        <v>0.11478419042311799</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="50">
-        <v>0.373643348384816</v>
-      </c>
-      <c r="I20" s="51">
-        <v>-0.19912830317577701</v>
-      </c>
-      <c r="J20" s="51">
-        <v>7.6587968056676003E-2</v>
-      </c>
-      <c r="K20" s="51">
-        <v>7.8863117793832982E-2</v>
-      </c>
-      <c r="Y20" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z20" s="60">
-        <v>2.1597999999999999E-2</v>
-      </c>
-      <c r="AA20" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB20" s="60">
-        <v>0.19663857764607801</v>
-      </c>
-      <c r="AC20" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="60">
-        <v>0.80336142235392105</v>
-      </c>
-      <c r="AE20" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI20" s="55">
-        <v>-6.02702140323612E-2</v>
-      </c>
-      <c r="AJ20" s="55">
-        <v>-1.58329741238552E-2</v>
-      </c>
-      <c r="AK20" s="56">
-        <v>-4.4437239908506001</v>
-      </c>
-      <c r="AL20" s="57">
-        <f t="shared" si="0"/>
-        <v>3.806626194225466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="50">
-        <v>0.18433179723502299</v>
-      </c>
-      <c r="C21" s="51">
-        <v>-0.15067252683261609</v>
-      </c>
-      <c r="D21" s="51">
-        <v>9.8349148112096024E-2</v>
-      </c>
-      <c r="E21" s="51">
-        <v>9.8256913925116013E-2</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="50">
-        <v>0.38775454318824898</v>
-      </c>
-      <c r="I21" s="51">
-        <v>-0.20740398477939298</v>
-      </c>
-      <c r="J21" s="51">
-        <v>6.2503528904828021E-2</v>
-      </c>
-      <c r="K21" s="51">
-        <v>6.2548053389641034E-2</v>
-      </c>
-      <c r="Y21" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="60">
-        <v>2.1717E-2</v>
-      </c>
-      <c r="AA21" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB21" s="60">
-        <v>0.19417967490905699</v>
-      </c>
-      <c r="AC21" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="60">
-        <v>0.80582032509094204</v>
-      </c>
-      <c r="AE21" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI21" s="55">
-        <v>-2.2204460492503101E-16</v>
-      </c>
-      <c r="AJ21" s="55">
-        <v>-9.2064908381764201E-4</v>
-      </c>
-      <c r="AK21" s="56">
-        <v>9.2064908381742E-2</v>
-      </c>
-      <c r="AL21" s="57">
-        <f t="shared" si="0"/>
-        <v>2.4118267082207033E-13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="50">
-        <v>0.172969966629588</v>
-      </c>
-      <c r="C22" s="51">
-        <v>-0.14580901966684259</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0.11942233401202498</v>
-      </c>
-      <c r="E22" s="51">
-        <v>0.11139984329844302</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="50">
-        <v>0.378221307270945</v>
-      </c>
-      <c r="I22" s="51">
-        <v>-0.21566906975071701</v>
-      </c>
-      <c r="J22" s="51">
-        <v>7.2892449036184026E-2</v>
-      </c>
-      <c r="K22" s="51">
-        <v>7.6640257567313019E-2</v>
-      </c>
-      <c r="Y22" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="60">
-        <v>2.1580999999999999E-2</v>
-      </c>
-      <c r="AA22" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB22" s="60">
-        <v>0.19901765441823799</v>
-      </c>
-      <c r="AC22" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="60">
-        <v>0.80098234558176096</v>
-      </c>
-      <c r="AE22" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI22" s="55">
-        <v>3.3290305046341402E-3</v>
-      </c>
-      <c r="AJ22" s="55">
-        <v>2.60684678403395E-4</v>
-      </c>
-      <c r="AK22" s="56">
-        <v>0.306834582623074</v>
-      </c>
-      <c r="AL22" s="57">
-        <f t="shared" si="0"/>
-        <v>12.770334355756233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="61">
-        <v>0.18144252441773101</v>
-      </c>
-      <c r="C23" s="51">
-        <v>-0.14331168329623573</v>
-      </c>
-      <c r="D23" s="51">
-        <v>0.10157634350679701</v>
-      </c>
-      <c r="E23" s="51">
-        <v>0.10857215987008101</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="61">
-        <v>0.38538439868611202</v>
-      </c>
-      <c r="I23" s="51">
-        <v>-0.19387231009413403</v>
-      </c>
-      <c r="J23" s="51">
-        <v>6.8384449060448993E-2</v>
-      </c>
-      <c r="K23" s="51">
-        <v>6.5081125325722966E-2</v>
-      </c>
-      <c r="Y23" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="60">
-        <v>2.1631999999999998E-2</v>
-      </c>
-      <c r="AA23" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB23" s="60">
-        <v>0.189765162721893</v>
-      </c>
-      <c r="AC23" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="60">
-        <v>0.81023483727810597</v>
-      </c>
-      <c r="AE23" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI23" s="55">
-        <v>-7.1376547705757597E-3</v>
-      </c>
-      <c r="AJ23" s="55">
-        <v>-1.4755057040894599E-3</v>
-      </c>
-      <c r="AK23" s="56">
-        <v>-0.56621490664862906</v>
-      </c>
-      <c r="AL23" s="57">
-        <f t="shared" si="0"/>
-        <v>4.8374294662455632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="50">
-        <v>0.17214771265845999</v>
-      </c>
-      <c r="C24" s="51">
-        <v>-0.14787133544090639</v>
-      </c>
-      <c r="D24" s="51">
-        <v>0.10603543217919001</v>
-      </c>
-      <c r="E24" s="51">
-        <v>0.11055034414273499</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="50">
-        <v>0.377508778288555</v>
-      </c>
-      <c r="I24" s="51">
-        <v>-0.22360285011570299</v>
-      </c>
-      <c r="J24" s="51">
-        <v>7.2802075991046988E-2</v>
-      </c>
-      <c r="K24" s="51">
-        <v>7.059531984700701E-2</v>
-      </c>
-      <c r="Y24" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="60">
-        <v>2.1977E-2</v>
-      </c>
-      <c r="AA24" s="60">
-        <v>2.0043336944745301E-2</v>
-      </c>
-      <c r="AB24" s="60">
-        <v>0.105246393957319</v>
-      </c>
-      <c r="AC24" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="60">
-        <v>0.89475360604268095</v>
-      </c>
-      <c r="AE24" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI24" s="57">
-        <v>-5.04115226337589E-2</v>
-      </c>
-      <c r="AJ24" s="57">
-        <v>-2.64881360031675E-2</v>
-      </c>
-      <c r="AK24" s="56">
-        <v>-2.3923386630591299</v>
-      </c>
-      <c r="AL24" s="57">
-        <f t="shared" si="0"/>
-        <v>1.9031736558484371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="50">
-        <v>4.6175788910679201E-2</v>
-      </c>
-      <c r="C25" s="51">
-        <v>-4.4666639693550364E-2</v>
-      </c>
-      <c r="D25" s="51">
-        <v>0.13507309282129382</v>
-      </c>
-      <c r="E25" s="51">
-        <v>0.1423966827943218</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="50">
-        <v>0.20986563660865201</v>
-      </c>
-      <c r="I25" s="51">
-        <v>-0.17104719143410391</v>
-      </c>
-      <c r="J25" s="51">
-        <v>0.181302990226445</v>
-      </c>
-      <c r="K25" s="51">
-        <v>0.17535861574689196</v>
-      </c>
-      <c r="Y25" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z25" s="60">
-        <v>2.1676999999999998E-2</v>
-      </c>
-      <c r="AA25" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB25" s="60">
-        <v>0.18918669557595599</v>
-      </c>
-      <c r="AC25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="60">
-        <v>0.81081330442404298</v>
-      </c>
-      <c r="AE25" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI25" s="57">
-        <v>-4.7377326565152501E-4</v>
-      </c>
-      <c r="AJ25" s="57">
-        <v>1.28180751065556E-4</v>
-      </c>
-      <c r="AK25" s="56">
-        <v>-6.0195401671708199E-2</v>
-      </c>
-      <c r="AL25" s="57">
-        <f t="shared" si="0"/>
-        <v>-3.6961342612918631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="50">
-        <v>0.170228863249479</v>
-      </c>
-      <c r="C26" s="51">
-        <v>-0.14624630510994419</v>
-      </c>
-      <c r="D26" s="51">
-        <v>0.11644873835431102</v>
-      </c>
-      <c r="E26" s="51">
-        <v>0.106859486444908</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="50">
-        <v>0.375833736333341</v>
-      </c>
-      <c r="I26" s="51">
-        <v>-0.22283898137546698</v>
-      </c>
-      <c r="J26" s="51">
-        <v>7.1726758078354991E-2</v>
-      </c>
-      <c r="K26" s="51">
-        <v>7.6375899059904995E-2</v>
-      </c>
-      <c r="Y26" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="60">
-        <v>2.1670999999999999E-2</v>
-      </c>
-      <c r="AA26" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB26" s="60">
-        <v>0.18273268423238401</v>
-      </c>
-      <c r="AC26" s="60">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="AD26" s="60">
-        <v>0.81726731576761502</v>
-      </c>
-      <c r="AE26" s="60">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AH26" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI26" s="55">
-        <v>-2.2204460492503101E-16</v>
-      </c>
-      <c r="AJ26" s="55">
-        <v>-1.02039759648324E-4</v>
-      </c>
-      <c r="AK26" s="56">
-        <v>1.0203975964810199E-2</v>
-      </c>
-      <c r="AL26" s="57">
-        <f t="shared" si="0"/>
-        <v>2.1760596623345543E-12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="50">
-        <v>0.15038702543309901</v>
-      </c>
-      <c r="C27" s="51">
-        <v>-0.14004970225573232</v>
-      </c>
-      <c r="D27" s="51">
-        <v>0.13833874155353698</v>
-      </c>
-      <c r="E27" s="51">
-        <v>0.13625011004124499</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="50">
-        <v>0.35745037140067198</v>
-      </c>
-      <c r="I27" s="51">
-        <v>-0.25630462049192498</v>
-      </c>
-      <c r="J27" s="51">
-        <v>9.4740172553331004E-2</v>
-      </c>
-      <c r="K27" s="51">
-        <v>9.5719793619731042E-2</v>
-      </c>
-      <c r="Y27" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z27" s="60">
-        <v>2.1686E-2</v>
-      </c>
-      <c r="AA27" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB27" s="60">
-        <v>0.179747302407082</v>
-      </c>
-      <c r="AC27" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="60">
-        <v>0.82025269759291697</v>
-      </c>
-      <c r="AE27" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI27" s="55">
-        <v>2.6614523924003998E-3</v>
-      </c>
-      <c r="AJ27" s="55">
-        <v>1.8991649446137399E-4</v>
-      </c>
-      <c r="AK27" s="56">
-        <v>0.24715358979390201</v>
-      </c>
-      <c r="AL27" s="57">
-        <f t="shared" si="0"/>
-        <v>14.013803276795935</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="50">
-        <v>0.15734720416124801</v>
-      </c>
-      <c r="C28" s="51">
-        <v>-0.13541737959984451</v>
-      </c>
-      <c r="D28" s="51">
-        <v>0.13217976068322099</v>
-      </c>
-      <c r="E28" s="51">
-        <v>0.11601685113829099</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="50">
-        <v>0.36412780929760302</v>
-      </c>
-      <c r="I28" s="51">
-        <v>-0.21767335441107602</v>
-      </c>
-      <c r="J28" s="51">
-        <v>8.1558345490408968E-2</v>
-      </c>
-      <c r="K28" s="51">
-        <v>8.9415023820063E-2</v>
-      </c>
-      <c r="Y28" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z28" s="60">
-        <v>2.1753999999999999E-2</v>
-      </c>
-      <c r="AA28" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB28" s="60">
-        <v>0.18952836259998099</v>
-      </c>
-      <c r="AC28" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="60">
-        <v>0.81047163740001804</v>
-      </c>
-      <c r="AE28" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI28" s="55">
-        <v>-2.2251718559690398E-2</v>
-      </c>
-      <c r="AJ28" s="55">
-        <v>-1.6549303866844198E-2</v>
-      </c>
-      <c r="AK28" s="56">
-        <v>-0.57024146928462305</v>
-      </c>
-      <c r="AL28" s="57">
-        <f t="shared" si="0"/>
-        <v>1.3445712725277066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="50">
-        <v>0.298363636363636</v>
-      </c>
-      <c r="C29" s="51">
-        <v>-1.1345195611400016E-2</v>
-      </c>
-      <c r="D29" s="51">
-        <v>-8.9797671342489727E-3</v>
-      </c>
-      <c r="E29" s="51">
-        <v>7.2351713859910016E-2</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="50">
-        <v>0.45753991832353902</v>
-      </c>
-      <c r="I29" s="51">
-        <v>-5.1696546894260398E-3</v>
-      </c>
-      <c r="J29" s="51">
-        <v>2.5456437079059979E-2</v>
-      </c>
-      <c r="K29" s="51">
-        <v>-4.0635182107980339E-3</v>
-      </c>
-      <c r="Y29" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z29" s="60">
-        <v>2.1713E-2</v>
-      </c>
-      <c r="AA29" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB29" s="60">
-        <v>0.185280707410307</v>
-      </c>
-      <c r="AC29" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="60">
-        <v>0.814719292589692</v>
-      </c>
-      <c r="AE29" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="50">
-        <v>0.175390266299357</v>
-      </c>
-      <c r="C30" s="51">
-        <v>-0.142111488339728</v>
-      </c>
-      <c r="D30" s="51">
-        <v>0.10547562986648401</v>
-      </c>
-      <c r="E30" s="51">
-        <v>9.5929009684967981E-2</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="50">
-        <v>0.38030056637717502</v>
-      </c>
-      <c r="I30" s="51">
-        <v>-0.20093696667773603</v>
-      </c>
-      <c r="J30" s="51">
-        <v>6.4339879897847008E-2</v>
-      </c>
-      <c r="K30" s="51">
-        <v>6.9121556505988002E-2</v>
-      </c>
-      <c r="Y30" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z30" s="60">
-        <v>2.1912000000000001E-2</v>
-      </c>
-      <c r="AA30" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB30" s="60">
-        <v>0.310971157356699</v>
-      </c>
-      <c r="AC30" s="60">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="60">
-        <v>0.6890288426433</v>
-      </c>
-      <c r="AE30" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="50">
-        <v>0.14363093014568501</v>
-      </c>
-      <c r="C31" s="51">
-        <v>-0.12687624065378922</v>
-      </c>
-      <c r="D31" s="51">
-        <v>0.13225054022190597</v>
-      </c>
-      <c r="E31" s="51">
-        <v>0.14063118639089101</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="50">
-        <v>0.35071510667658901</v>
-      </c>
-      <c r="I31" s="51">
-        <v>-0.222364143018634</v>
-      </c>
-      <c r="J31" s="51">
-        <v>0.10034715691759399</v>
-      </c>
-      <c r="K31" s="51">
-        <v>9.624225669870401E-2</v>
-      </c>
-      <c r="Y31" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="60">
-        <v>2.1708999999999999E-2</v>
-      </c>
-      <c r="AA31" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB31" s="60">
-        <v>0.192592933806255</v>
-      </c>
-      <c r="AC31" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="60">
-        <v>0.80740706619374403</v>
-      </c>
-      <c r="AE31" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="50">
-        <v>0.175627240143369</v>
-      </c>
-      <c r="C32" s="51">
-        <v>-0.14454294685391941</v>
-      </c>
-      <c r="D32" s="51">
-        <v>0.11137570536473101</v>
-      </c>
-      <c r="E32" s="51">
-        <v>0.10593358617644699</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="50">
-        <v>0.38050271045420703</v>
-      </c>
-      <c r="I32" s="51">
-        <v>-0.20695715447495502</v>
-      </c>
-      <c r="J32" s="51">
-        <v>6.9257589485578974E-2</v>
-      </c>
-      <c r="K32" s="51">
-        <v>7.1860257501579983E-2</v>
-      </c>
-      <c r="Y32" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z32" s="60">
-        <v>2.1913999999999999E-2</v>
-      </c>
-      <c r="AA32" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB32" s="60">
-        <v>0.188144565118189</v>
-      </c>
-      <c r="AC32" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="60">
-        <v>0.81185543488181</v>
-      </c>
-      <c r="AE32" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="50">
-        <v>0.16210758215531401</v>
-      </c>
-      <c r="C33" s="51">
-        <v>-0.14340041416124111</v>
-      </c>
-      <c r="D33" s="51">
-        <v>0.12149335596483701</v>
-      </c>
-      <c r="E33" s="51">
-        <v>0.121512327346948</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="50">
-        <v>0.36854947288399598</v>
-      </c>
-      <c r="I33" s="51">
-        <v>-0.23306069157825099</v>
-      </c>
-      <c r="J33" s="51">
-        <v>8.2205068342366017E-2</v>
-      </c>
-      <c r="K33" s="51">
-        <v>8.2195960833900017E-2</v>
-      </c>
-      <c r="Y33" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="60">
-        <v>2.1794999999999998E-2</v>
-      </c>
-      <c r="AA33" s="60">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB33" s="60">
-        <v>0.19431062170222499</v>
-      </c>
-      <c r="AC33" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="60">
-        <v>0.80568937829777398</v>
-      </c>
-      <c r="AE33" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="50">
-        <v>0.175720014582573</v>
-      </c>
-      <c r="C34" s="51">
-        <v>-0.13624149824030349</v>
-      </c>
-      <c r="D34" s="51">
-        <v>0.10730574825316599</v>
-      </c>
-      <c r="E34" s="51">
-        <v>0.10387182215212001</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="50">
-        <v>0.380581779723702</v>
-      </c>
-      <c r="I34" s="51">
-        <v>-0.185851291382299</v>
-      </c>
-      <c r="J34" s="51">
-        <v>6.8216885120572002E-2</v>
-      </c>
-      <c r="K34" s="51">
-        <v>6.9887065377680024E-2</v>
-      </c>
-      <c r="Y34" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z34" s="59">
-        <v>2.2012E-2</v>
-      </c>
-      <c r="AA34" s="59">
-        <v>1.0563380281690101E-2</v>
-      </c>
-      <c r="AB34" s="59">
-        <v>0.19203161911684499</v>
-      </c>
-      <c r="AC34" s="59">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="59">
-        <v>0.80796838088315404</v>
-      </c>
-      <c r="AE34" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="50">
-        <v>0.17182067703568099</v>
-      </c>
-      <c r="C35" s="51">
-        <v>-0.1497242562906117</v>
-      </c>
-      <c r="D35" s="51">
-        <v>0.11861253596070803</v>
-      </c>
-      <c r="E35" s="51">
-        <v>0.10986437087608902</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="50">
-        <v>0.37722451137045099</v>
-      </c>
-      <c r="I35" s="51">
-        <v>-0.23022733814822599</v>
-      </c>
-      <c r="J35" s="51">
-        <v>7.259609920082799E-2</v>
-      </c>
-      <c r="K35" s="51">
-        <v>7.6737779778277004E-2</v>
-      </c>
-      <c r="Y35" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="G36" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="Y36" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="G37" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="Y37" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="G38" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="66">
+        <v>0</v>
+      </c>
+      <c r="D69" s="66">
+        <v>0</v>
+      </c>
+      <c r="E69" s="66">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="AH6:AL28">
+    <sortCondition descending="1" ref="AK6:AK28"/>
+  </sortState>
   <mergeCells count="9">
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
     <mergeCell ref="Y35:AB35"/>
     <mergeCell ref="Y36:AB36"/>
     <mergeCell ref="Y37:AB37"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E35">
     <cfRule type="colorScale" priority="36">
@@ -3687,70 +4127,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{25C7B6DD-FF38-40CC-8FB2-67A5B28FEA48}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D7:E7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{AD2BA177-F7B2-4C77-ABC9-C520939921E6}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{E7177075-625B-4CC9-A42A-B1C5CF2C44B4}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>D10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{3CB5645E-EA32-43F3-B0FB-AD1BE667AB32}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{940B78EA-E2F0-48D7-B9E9-CDC0F7D6B06B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -3815,6 +4191,70 @@
           </x14:cfRule>
           <xm:sqref>AA6:AA34</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{25C7B6DD-FF38-40CC-8FB2-67A5B28FEA48}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D7:E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{AD2BA177-F7B2-4C77-ABC9-C520939921E6}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="33" id="{E7177075-625B-4CC9-A42A-B1C5CF2C44B4}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{3CB5645E-EA32-43F3-B0FB-AD1BE667AB32}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E8</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3825,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView topLeftCell="H29" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:T64"/>
+    <sheetView topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3841,7 +4281,7 @@
     <col min="13" max="14" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="10"/>
     <col min="16" max="16" width="19.7109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -3880,7 +4320,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>103</v>
       </c>
       <c r="R1" s="8" t="s">
@@ -3930,7 +4370,7 @@
       <c r="P2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="38" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -3986,7 +4426,7 @@
       <c r="P3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="39">
         <v>0.178651789044733</v>
       </c>
       <c r="R3" s="12">
@@ -4045,7 +4485,7 @@
       <c r="P4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="40">
         <v>1</v>
       </c>
       <c r="R4" s="12">
@@ -4104,7 +4544,7 @@
       <c r="P5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="41">
         <v>7.9962894248608501E-2</v>
       </c>
       <c r="R5" s="12">
@@ -4163,7 +4603,7 @@
       <c r="P6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="39">
         <v>0</v>
       </c>
       <c r="R6" s="12">
@@ -4222,7 +4662,7 @@
       <c r="P7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="39">
         <v>9.3646713183988192E-3</v>
       </c>
       <c r="R7" s="12">
@@ -4281,7 +4721,7 @@
       <c r="P8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="39">
         <v>0.18634926538962199</v>
       </c>
       <c r="R8" s="12">
@@ -4340,7 +4780,7 @@
       <c r="P9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="39">
         <v>0.175924205833178</v>
       </c>
       <c r="R9" s="12">
@@ -4399,7 +4839,7 @@
       <c r="P10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="39">
         <v>0.1787719955073</v>
       </c>
       <c r="R10" s="12">
@@ -4458,7 +4898,7 @@
       <c r="P11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="41">
         <v>0.13989253288864101</v>
       </c>
       <c r="R11" s="12">
@@ -4517,7 +4957,7 @@
       <c r="P12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="39">
         <v>0.164950349393159</v>
       </c>
       <c r="R12" s="12">
@@ -4576,7 +5016,7 @@
       <c r="P13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="39">
         <v>0.17216937138593499</v>
       </c>
       <c r="R13" s="12">
@@ -4635,7 +5075,7 @@
       <c r="P14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="39">
         <v>0.18465703971119099</v>
       </c>
       <c r="R14" s="12">
@@ -4694,7 +5134,7 @@
       <c r="P15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="39">
         <v>0.19426289034132099</v>
       </c>
       <c r="R15" s="12">
@@ -4753,7 +5193,7 @@
       <c r="P16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="39">
         <v>0.145605920444033</v>
       </c>
       <c r="R16" s="12">
@@ -4812,7 +5252,7 @@
       <c r="P17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="39">
         <v>0.16774911857487401</v>
       </c>
       <c r="R17" s="12">
@@ -4871,7 +5311,7 @@
       <c r="P18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="39">
         <v>0.18433179723502299</v>
       </c>
       <c r="R18" s="12">
@@ -4930,7 +5370,7 @@
       <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="39">
         <v>0.172969966629588</v>
       </c>
       <c r="R19" s="12">
@@ -4989,7 +5429,7 @@
       <c r="P20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="41">
         <v>0.18144252441773101</v>
       </c>
       <c r="R20" s="12">
@@ -5048,7 +5488,7 @@
       <c r="P21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="39">
         <v>0.17214771265845999</v>
       </c>
       <c r="R21" s="12">
@@ -5107,7 +5547,7 @@
       <c r="P22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="39">
         <v>4.6175788910679201E-2</v>
       </c>
       <c r="R22" s="12">
@@ -5166,7 +5606,7 @@
       <c r="P23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="39">
         <v>0.170228863249479</v>
       </c>
       <c r="R23" s="12">
@@ -5225,7 +5665,7 @@
       <c r="P24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="39">
         <v>0.15038702543309901</v>
       </c>
       <c r="R24" s="12">
@@ -5284,7 +5724,7 @@
       <c r="P25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="39">
         <v>0.15734720416124801</v>
       </c>
       <c r="R25" s="12">
@@ -5343,7 +5783,7 @@
       <c r="P26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="39">
         <v>0.298363636363636</v>
       </c>
       <c r="R26" s="12">
@@ -5402,7 +5842,7 @@
       <c r="P27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="39">
         <v>0.175390266299357</v>
       </c>
       <c r="R27" s="12">
@@ -5461,7 +5901,7 @@
       <c r="P28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="39">
         <v>0.14363093014568501</v>
       </c>
       <c r="R28" s="12">
@@ -5520,7 +5960,7 @@
       <c r="P29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="39">
         <v>0.175627240143369</v>
       </c>
       <c r="R29" s="12">
@@ -5579,7 +6019,7 @@
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="39">
         <v>0.16210758215531401</v>
       </c>
       <c r="R30" s="12">
@@ -5638,7 +6078,7 @@
       <c r="P31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="39">
         <v>0.175720014582573</v>
       </c>
       <c r="R31" s="12">
@@ -5697,7 +6137,7 @@
       <c r="P32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="39">
         <v>0.17182067703568099</v>
       </c>
       <c r="R32" s="12">
@@ -5738,7 +6178,7 @@
       <c r="H33" s="9">
         <v>5500</v>
       </c>
-      <c r="Q33" s="41"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -5783,7 +6223,7 @@
       <c r="P34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Q34" s="41" t="s">
+      <c r="Q34" s="38" t="s">
         <v>98</v>
       </c>
       <c r="R34" s="8" t="s">
@@ -5839,7 +6279,7 @@
       <c r="P35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="39">
         <v>0.38306047475021598</v>
       </c>
       <c r="R35" s="12">
@@ -5898,7 +6338,7 @@
       <c r="P36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="39">
         <v>0</v>
       </c>
       <c r="R36" s="12">
@@ -5957,7 +6397,7 @@
       <c r="P37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="41">
         <v>0.27123574578583098</v>
       </c>
       <c r="R37" s="12">
@@ -6016,7 +6456,7 @@
       <c r="P38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="39">
         <v>0</v>
       </c>
       <c r="R38" s="12">
@@ -6075,7 +6515,7 @@
       <c r="P39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q39" s="42">
+      <c r="Q39" s="39">
         <v>9.6317050668594403E-2</v>
       </c>
       <c r="R39" s="12">
@@ -6134,7 +6574,7 @@
       <c r="P40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="42">
+      <c r="Q40" s="39">
         <v>0.38938825955384898</v>
       </c>
       <c r="R40" s="12">
@@ -6193,7 +6633,7 @@
       <c r="P41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q41" s="42">
+      <c r="Q41" s="39">
         <v>0.38075566920947101</v>
       </c>
       <c r="R41" s="12">
@@ -6252,7 +6692,7 @@
       <c r="P42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="42">
+      <c r="Q42" s="39">
         <v>0.38316128344292499</v>
       </c>
       <c r="R42" s="12">
@@ -6311,7 +6751,7 @@
       <c r="P43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="44">
+      <c r="Q43" s="41">
         <v>0.346875499467236</v>
       </c>
       <c r="R43" s="12">
@@ -6370,7 +6810,7 @@
       <c r="P44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" s="42">
+      <c r="Q44" s="39">
         <v>0.37113573208225797</v>
       </c>
       <c r="R44" s="12">
@@ -6429,7 +6869,7 @@
       <c r="P45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="42">
+      <c r="Q45" s="39">
         <v>0.37752758699532601</v>
       </c>
       <c r="R45" s="12">
@@ -6488,7 +6928,7 @@
       <c r="P46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q46" s="42">
+      <c r="Q46" s="39">
         <v>0.38801909411303598</v>
       </c>
       <c r="R46" s="12">
@@ -6547,7 +6987,7 @@
       <c r="P47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="42">
+      <c r="Q47" s="39">
         <v>0.39563217737890399</v>
       </c>
       <c r="R47" s="12">
@@ -6606,7 +7046,7 @@
       <c r="P48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="42">
+      <c r="Q48" s="39">
         <v>0.35271069784695602</v>
       </c>
       <c r="R48" s="12">
@@ -6665,7 +7105,7 @@
       <c r="P49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q49" s="42">
+      <c r="Q49" s="39">
         <v>0.373643348384816</v>
       </c>
       <c r="R49" s="12">
@@ -6724,7 +7164,7 @@
       <c r="P50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="42">
+      <c r="Q50" s="39">
         <v>0.38775454318824898</v>
       </c>
       <c r="R50" s="12">
@@ -6783,7 +7223,7 @@
       <c r="P51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q51" s="42">
+      <c r="Q51" s="39">
         <v>0.378221307270945</v>
       </c>
       <c r="R51" s="12">
@@ -6842,7 +7282,7 @@
       <c r="P52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="41">
         <v>0.38538439868611202</v>
       </c>
       <c r="R52" s="12">
@@ -6901,7 +7341,7 @@
       <c r="P53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="42">
+      <c r="Q53" s="39">
         <v>0.377508778288555</v>
       </c>
       <c r="R53" s="12">
@@ -6960,7 +7400,7 @@
       <c r="P54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q54" s="42">
+      <c r="Q54" s="39">
         <v>0.20986563660865201</v>
       </c>
       <c r="R54" s="12">
@@ -7019,7 +7459,7 @@
       <c r="P55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q55" s="42">
+      <c r="Q55" s="39">
         <v>0.375833736333341</v>
       </c>
       <c r="R55" s="12">
@@ -7078,7 +7518,7 @@
       <c r="P56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="42">
+      <c r="Q56" s="39">
         <v>0.35745037140067198</v>
       </c>
       <c r="R56" s="12">
@@ -7137,7 +7577,7 @@
       <c r="P57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="42">
+      <c r="Q57" s="39">
         <v>0.36412780929760302</v>
       </c>
       <c r="R57" s="12">
@@ -7196,7 +7636,7 @@
       <c r="P58" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q58" s="42">
+      <c r="Q58" s="39">
         <v>0.45753991832353902</v>
       </c>
       <c r="R58" s="12">
@@ -7255,7 +7695,7 @@
       <c r="P59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q59" s="42">
+      <c r="Q59" s="39">
         <v>0.38030056637717502</v>
       </c>
       <c r="R59" s="12">
@@ -7314,7 +7754,7 @@
       <c r="P60" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="42">
+      <c r="Q60" s="39">
         <v>0.35071510667658901</v>
       </c>
       <c r="R60" s="12">
@@ -7373,7 +7813,7 @@
       <c r="P61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q61" s="42">
+      <c r="Q61" s="39">
         <v>0.38050271045420703</v>
       </c>
       <c r="R61" s="12">
@@ -7432,7 +7872,7 @@
       <c r="P62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q62" s="42">
+      <c r="Q62" s="39">
         <v>0.36854947288399598</v>
       </c>
       <c r="R62" s="12">
@@ -7491,7 +7931,7 @@
       <c r="P63" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q63" s="42">
+      <c r="Q63" s="39">
         <v>0.380581779723702</v>
       </c>
       <c r="R63" s="12">
@@ -7550,7 +7990,7 @@
       <c r="P64" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q64" s="42">
+      <c r="Q64" s="39">
         <v>0.37722451137045099</v>
       </c>
       <c r="R64" s="12">
@@ -7591,7 +8031,7 @@
       <c r="H65" s="9">
         <v>5540</v>
       </c>
-      <c r="Q65" s="41"/>
+      <c r="Q65" s="38"/>
     </row>
     <row r="66" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
@@ -7618,7 +8058,7 @@
       <c r="H66" s="7">
         <v>5491</v>
       </c>
-      <c r="Q66" s="41"/>
+      <c r="Q66" s="38"/>
     </row>
     <row r="67" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
@@ -7645,7 +8085,7 @@
       <c r="H67" s="8">
         <v>5332</v>
       </c>
-      <c r="Q67" s="41"/>
+      <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -7672,7 +8112,7 @@
       <c r="H68" s="8">
         <v>5509</v>
       </c>
-      <c r="Q68" s="41"/>
+      <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
@@ -7699,7 +8139,7 @@
       <c r="H69" s="9">
         <v>5354</v>
       </c>
-      <c r="Q69" s="41"/>
+      <c r="Q69" s="38"/>
     </row>
     <row r="70" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
@@ -7726,7 +8166,7 @@
       <c r="H70" s="7">
         <v>5318</v>
       </c>
-      <c r="Q70" s="41"/>
+      <c r="Q70" s="38"/>
     </row>
     <row r="71" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
@@ -7753,7 +8193,7 @@
       <c r="H71" s="8">
         <v>5416</v>
       </c>
-      <c r="Q71" s="41"/>
+      <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
@@ -7780,7 +8220,7 @@
       <c r="H72" s="8">
         <v>5439</v>
       </c>
-      <c r="Q72" s="41"/>
+      <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
@@ -7807,7 +8247,7 @@
       <c r="H73" s="8">
         <v>5425</v>
       </c>
-      <c r="Q73" s="41"/>
+      <c r="Q73" s="38"/>
     </row>
     <row r="74" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
@@ -7834,7 +8274,7 @@
       <c r="H74" s="7">
         <v>5499</v>
       </c>
-      <c r="Q74" s="41"/>
+      <c r="Q74" s="38"/>
     </row>
     <row r="75" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
@@ -7861,7 +8301,7 @@
       <c r="H75" s="8">
         <v>5451</v>
       </c>
-      <c r="Q75" s="41"/>
+      <c r="Q75" s="38"/>
     </row>
     <row r="76" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
@@ -7888,7 +8328,7 @@
       <c r="H76" s="8">
         <v>5359</v>
       </c>
-      <c r="Q76" s="41"/>
+      <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
@@ -7915,7 +8355,7 @@
       <c r="H77" s="9">
         <v>5445</v>
       </c>
-      <c r="Q77" s="41"/>
+      <c r="Q77" s="38"/>
     </row>
     <row r="78" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
@@ -7942,7 +8382,7 @@
       <c r="H78" s="7">
         <v>5430</v>
       </c>
-      <c r="Q78" s="41"/>
+      <c r="Q78" s="38"/>
     </row>
     <row r="79" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
@@ -7969,7 +8409,7 @@
       <c r="H79" s="8">
         <v>5448</v>
       </c>
-      <c r="Q79" s="41"/>
+      <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
@@ -7996,7 +8436,7 @@
       <c r="H80" s="8">
         <v>5516</v>
       </c>
-      <c r="Q80" s="41"/>
+      <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
@@ -8023,7 +8463,7 @@
       <c r="H81" s="9">
         <v>5438</v>
       </c>
-      <c r="Q81" s="41"/>
+      <c r="Q81" s="38"/>
     </row>
     <row r="82" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
@@ -8050,7 +8490,7 @@
       <c r="H82" s="7">
         <v>5472</v>
       </c>
-      <c r="Q82" s="41"/>
+      <c r="Q82" s="38"/>
     </row>
     <row r="83" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
@@ -8077,7 +8517,7 @@
       <c r="H83" s="8">
         <v>5433</v>
       </c>
-      <c r="Q83" s="41"/>
+      <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
@@ -8104,7 +8544,7 @@
       <c r="H84" s="8">
         <v>5425</v>
       </c>
-      <c r="Q84" s="41"/>
+      <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
@@ -8131,7 +8571,7 @@
       <c r="H85" s="9">
         <v>5383</v>
       </c>
-      <c r="Q85" s="41"/>
+      <c r="Q85" s="38"/>
     </row>
     <row r="86" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
@@ -8158,7 +8598,7 @@
       <c r="H86" s="7">
         <v>5446</v>
       </c>
-      <c r="Q86" s="41"/>
+      <c r="Q86" s="38"/>
     </row>
     <row r="87" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
@@ -8185,7 +8625,7 @@
       <c r="H87" s="8">
         <v>5473</v>
       </c>
-      <c r="Q87" s="41"/>
+      <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
@@ -8212,7 +8652,7 @@
       <c r="H88" s="8">
         <v>5390</v>
       </c>
-      <c r="Q88" s="41"/>
+      <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
@@ -8239,7 +8679,7 @@
       <c r="H89" s="9">
         <v>5486</v>
       </c>
-      <c r="Q89" s="41"/>
+      <c r="Q89" s="38"/>
     </row>
     <row r="90" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
@@ -8266,7 +8706,7 @@
       <c r="H90" s="7">
         <v>5350</v>
       </c>
-      <c r="Q90" s="41"/>
+      <c r="Q90" s="38"/>
     </row>
     <row r="91" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
@@ -8293,7 +8733,7 @@
       <c r="H91" s="8">
         <v>5459</v>
       </c>
-      <c r="Q91" s="41"/>
+      <c r="Q91" s="38"/>
     </row>
     <row r="92" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
@@ -8320,7 +8760,7 @@
       <c r="H92" s="8">
         <v>5448</v>
       </c>
-      <c r="Q92" s="41"/>
+      <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
@@ -8347,7 +8787,7 @@
       <c r="H93" s="9">
         <v>5324</v>
       </c>
-      <c r="Q93" s="41"/>
+      <c r="Q93" s="38"/>
     </row>
     <row r="94" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
@@ -8374,7 +8814,7 @@
       <c r="H94" s="7">
         <v>5476</v>
       </c>
-      <c r="Q94" s="41"/>
+      <c r="Q94" s="38"/>
     </row>
     <row r="95" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
@@ -8401,7 +8841,7 @@
       <c r="H95" s="8">
         <v>5540</v>
       </c>
-      <c r="Q95" s="41"/>
+      <c r="Q95" s="38"/>
     </row>
     <row r="96" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
@@ -8428,7 +8868,7 @@
       <c r="H96" s="8">
         <v>5531</v>
       </c>
-      <c r="Q96" s="41"/>
+      <c r="Q96" s="38"/>
     </row>
     <row r="97" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
@@ -8455,7 +8895,7 @@
       <c r="H97" s="9">
         <v>5465</v>
       </c>
-      <c r="Q97" s="41"/>
+      <c r="Q97" s="38"/>
     </row>
     <row r="98" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
@@ -8482,7 +8922,7 @@
       <c r="H98" s="7">
         <v>5409</v>
       </c>
-      <c r="Q98" s="41"/>
+      <c r="Q98" s="38"/>
     </row>
     <row r="99" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
@@ -8509,7 +8949,7 @@
       <c r="H99" s="8">
         <v>5402</v>
       </c>
-      <c r="Q99" s="41"/>
+      <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
@@ -8536,7 +8976,7 @@
       <c r="H100" s="8">
         <v>5439</v>
       </c>
-      <c r="Q100" s="41"/>
+      <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
@@ -8563,7 +9003,7 @@
       <c r="H101" s="9">
         <v>5383</v>
       </c>
-      <c r="Q101" s="41"/>
+      <c r="Q101" s="38"/>
     </row>
     <row r="102" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
@@ -8590,7 +9030,7 @@
       <c r="H102" s="7">
         <v>5435</v>
       </c>
-      <c r="Q102" s="41"/>
+      <c r="Q102" s="38"/>
     </row>
     <row r="103" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
@@ -8617,7 +9057,7 @@
       <c r="H103" s="8">
         <v>5442</v>
       </c>
-      <c r="Q103" s="41"/>
+      <c r="Q103" s="38"/>
     </row>
     <row r="104" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
@@ -8644,7 +9084,7 @@
       <c r="H104" s="8">
         <v>5560</v>
       </c>
-      <c r="Q104" s="41"/>
+      <c r="Q104" s="38"/>
     </row>
     <row r="105" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
@@ -8671,7 +9111,7 @@
       <c r="H105" s="9">
         <v>5390</v>
       </c>
-      <c r="Q105" s="41"/>
+      <c r="Q105" s="38"/>
     </row>
     <row r="106" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
@@ -8698,7 +9138,7 @@
       <c r="H106" s="7">
         <v>5355</v>
       </c>
-      <c r="Q106" s="41"/>
+      <c r="Q106" s="38"/>
     </row>
     <row r="107" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
@@ -8725,7 +9165,7 @@
       <c r="H107" s="8">
         <v>5482</v>
       </c>
-      <c r="Q107" s="41"/>
+      <c r="Q107" s="38"/>
     </row>
     <row r="108" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
@@ -8752,7 +9192,7 @@
       <c r="H108" s="8">
         <v>5352</v>
       </c>
-      <c r="Q108" s="41"/>
+      <c r="Q108" s="38"/>
     </row>
     <row r="109" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
@@ -8779,7 +9219,7 @@
       <c r="H109" s="9">
         <v>5443</v>
       </c>
-      <c r="Q109" s="41"/>
+      <c r="Q109" s="38"/>
     </row>
     <row r="110" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
@@ -8806,7 +9246,7 @@
       <c r="H110" s="7">
         <v>5399</v>
       </c>
-      <c r="Q110" s="41"/>
+      <c r="Q110" s="38"/>
     </row>
     <row r="111" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
@@ -8833,7 +9273,7 @@
       <c r="H111" s="8">
         <v>5543</v>
       </c>
-      <c r="Q111" s="41"/>
+      <c r="Q111" s="38"/>
     </row>
     <row r="112" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
@@ -8860,7 +9300,7 @@
       <c r="H112" s="8">
         <v>5525</v>
       </c>
-      <c r="Q112" s="41"/>
+      <c r="Q112" s="38"/>
     </row>
     <row r="113" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
@@ -8887,7 +9327,7 @@
       <c r="H113" s="9">
         <v>5447</v>
       </c>
-      <c r="Q113" s="41"/>
+      <c r="Q113" s="38"/>
     </row>
     <row r="114" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
@@ -8914,7 +9354,7 @@
       <c r="H114" s="7">
         <v>5449</v>
       </c>
-      <c r="Q114" s="41"/>
+      <c r="Q114" s="38"/>
     </row>
     <row r="115" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
@@ -8941,7 +9381,7 @@
       <c r="H115" s="8">
         <v>5455</v>
       </c>
-      <c r="Q115" s="41"/>
+      <c r="Q115" s="38"/>
     </row>
     <row r="116" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
@@ -8968,7 +9408,7 @@
       <c r="H116" s="8">
         <v>5419</v>
       </c>
-      <c r="Q116" s="41"/>
+      <c r="Q116" s="38"/>
     </row>
     <row r="117" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
@@ -8995,7 +9435,7 @@
       <c r="H117" s="9">
         <v>5394</v>
       </c>
-      <c r="Q117" s="41"/>
+      <c r="Q117" s="38"/>
     </row>
     <row r="118" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
@@ -9022,7 +9462,7 @@
       <c r="H118" s="7">
         <v>5589</v>
       </c>
-      <c r="Q118" s="41"/>
+      <c r="Q118" s="38"/>
     </row>
     <row r="119" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
@@ -9049,7 +9489,7 @@
       <c r="H119" s="8">
         <v>5445</v>
       </c>
-      <c r="Q119" s="41"/>
+      <c r="Q119" s="38"/>
     </row>
     <row r="120" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
@@ -9076,7 +9516,7 @@
       <c r="H120" s="8">
         <v>5464</v>
       </c>
-      <c r="Q120" s="41"/>
+      <c r="Q120" s="38"/>
     </row>
     <row r="121" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
@@ -9103,7 +9543,7 @@
       <c r="H121" s="9">
         <v>5400</v>
       </c>
-      <c r="Q121" s="41"/>
+      <c r="Q121" s="38"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J122" s="8"/>
@@ -9384,7 +9824,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9483,7 +9923,7 @@
       <c r="H4" s="22">
         <v>0</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9800,12 +10240,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
@@ -9820,12 +10260,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
@@ -9840,12 +10280,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
@@ -10343,20 +10783,20 @@
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>49.536001733477789</v>
       </c>
       <c r="C4" s="20">
         <f>counting_Tree!B2/counting_Current!B2</f>
         <v>131.6335131428572</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>21.289707343654801</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>-21.289707343654896</v>
       </c>
       <c r="G4" s="20">
@@ -10434,21 +10874,21 @@
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>-49.536001733477711</v>
       </c>
       <c r="C5" s="21">
         <f>counting_Tree!B3/counting_Current!B3</f>
         <v>0.5027544361065801</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>15.6329520561802</v>
       </c>
       <c r="E5" s="21">
         <f>counting_Tree!C3/counting_Current!C3</f>
         <v>3.7036676016911039</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>-15.632952056180294</v>
       </c>
       <c r="G5" s="21">
@@ -10526,20 +10966,20 @@
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>49.592501733477789</v>
       </c>
       <c r="C6" s="20">
         <f>counting_Tree!B4/counting_Current!B4</f>
         <v>131.78251171428579</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>21.309060928485497</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>-21.3090609284856</v>
       </c>
       <c r="G6" s="20">
@@ -10564,7 +11004,7 @@
       <c r="N6" s="22">
         <v>0.78690939071514399</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="33">
         <v>1</v>
       </c>
       <c r="Q6" s="5" t="s">
@@ -10617,21 +11057,21 @@
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>-49.592501733477704</v>
       </c>
       <c r="C7" s="21">
         <f>counting_Tree!B5/counting_Current!B5</f>
         <v>0.50218728548124025</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>15.613761958203101</v>
       </c>
       <c r="E7" s="21">
         <f>counting_Tree!C5/counting_Current!C5</f>
         <v>3.7003487374108643</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>-15.613761958203199</v>
       </c>
       <c r="G7" s="21">
@@ -10709,20 +11149,20 @@
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>33.163800866738896</v>
       </c>
       <c r="C8" s="20">
         <f>counting_Tree!B6/counting_Current!B6</f>
         <v>175.91536114285725</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>21.369335659932702</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>-21.369335659932798</v>
       </c>
       <c r="G8" s="20">
@@ -10791,7 +11231,7 @@
       <c r="AD8" s="22">
         <v>0.80455178820250794</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10799,20 +11239,20 @@
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>33.128100866738897</v>
       </c>
       <c r="C9" s="22">
         <f>counting_Tree!B7/counting_Current!B7</f>
         <v>175.72706914285723</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>21.316297343454</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>-21.316297343454103</v>
       </c>
       <c r="G9" s="22">
@@ -10881,7 +11321,7 @@
       <c r="AD9" s="22">
         <v>0.80899551610964704</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10889,21 +11329,21 @@
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>-66.291901733477701</v>
       </c>
       <c r="C10" s="21">
         <f>counting_Tree!B8/counting_Current!B8</f>
         <v>0.33455763675910849</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>15.5897144869479</v>
       </c>
       <c r="E10" s="21">
         <f>counting_Tree!C8/counting_Current!C8</f>
         <v>3.6961898064103957</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>-15.589714486947992</v>
       </c>
       <c r="G10" s="21">
@@ -10972,7 +11412,7 @@
       <c r="AD10" s="22">
         <v>0.81112291560811101</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10980,21 +11420,21 @@
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>12.870684290357598</v>
       </c>
       <c r="C11" s="20">
         <f>counting_Tree!B9/counting_Current!B9</f>
         <v>2.055968142222234</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>1.0268365990815203</v>
       </c>
       <c r="E11" s="20">
         <f>counting_Tree!C9/counting_Current!C9</f>
         <v>1.3960655453600153</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>-1.0268365990815931</v>
       </c>
       <c r="G11" s="20">
@@ -11072,21 +11512,21 @@
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>-38.502152871072504</v>
       </c>
       <c r="C12" s="22">
         <f>counting_Tree!B10/counting_Current!B10</f>
         <v>0.39304035695986389</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>13.951145314948679</v>
       </c>
       <c r="E12" s="22">
         <f>counting_Tree!C10/counting_Current!C10</f>
         <v>4.5643907993756176</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>-13.951145314948699</v>
       </c>
       <c r="G12" s="22">
@@ -11155,7 +11595,7 @@
       <c r="AD12" s="22">
         <v>0.80803407841700203</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11163,21 +11603,21 @@
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>12.818484290357601</v>
       </c>
       <c r="C13" s="22">
         <f>counting_Tree!B11/counting_Current!B11</f>
         <v>2.051685422222234</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>20.662940302641196</v>
       </c>
       <c r="E13" s="22">
         <f>counting_Tree!C11/counting_Current!C11</f>
         <v>2.9924978148975576</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>-20.662940302641207</v>
       </c>
       <c r="G13" s="22">
@@ -11246,7 +11686,7 @@
       <c r="AD13" s="22">
         <v>0.80746769669379603</v>
       </c>
-      <c r="AE13" s="34">
+      <c r="AE13" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11254,21 +11694,21 @@
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>12.812984290357598</v>
       </c>
       <c r="C14" s="21">
         <f>counting_Tree!B12/counting_Current!B12</f>
         <v>2.0512341777777894</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>18.995298800590501</v>
       </c>
       <c r="E14" s="21">
         <f>counting_Tree!C12/counting_Current!C12</f>
         <v>2.3640241159998525</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>-18.995298800590497</v>
       </c>
       <c r="G14" s="21">
@@ -11337,7 +11777,7 @@
       <c r="AD14" s="22">
         <v>0.80476934387061205</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11389,7 +11829,7 @@
       <c r="AD15" s="22">
         <v>0.80012936610607999</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11441,7 +11881,7 @@
       <c r="AD16" s="22">
         <v>0.81201559275395496</v>
       </c>
-      <c r="AE16" s="34">
+      <c r="AE16" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11493,7 +11933,7 @@
       <c r="AD17" s="22">
         <v>0.80762175548014303</v>
       </c>
-      <c r="AE17" s="34">
+      <c r="AE17" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11545,7 +11985,7 @@
       <c r="AD18" s="22">
         <v>0.80336142235392105</v>
       </c>
-      <c r="AE18" s="34">
+      <c r="AE18" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11597,7 +12037,7 @@
       <c r="AD19" s="22">
         <v>0.80582032509094204</v>
       </c>
-      <c r="AE19" s="34">
+      <c r="AE19" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11649,7 +12089,7 @@
       <c r="AD20" s="22">
         <v>0.80098234558176096</v>
       </c>
-      <c r="AE20" s="34">
+      <c r="AE20" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11701,7 +12141,7 @@
       <c r="AD21" s="22">
         <v>0.81023483727810597</v>
       </c>
-      <c r="AE21" s="34">
+      <c r="AE21" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11753,7 +12193,7 @@
       <c r="AD22" s="22">
         <v>0.89475360604268095</v>
       </c>
-      <c r="AE22" s="34">
+      <c r="AE22" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11805,7 +12245,7 @@
       <c r="AD23" s="22">
         <v>0.81081330442404298</v>
       </c>
-      <c r="AE23" s="34">
+      <c r="AE23" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11910,7 +12350,7 @@
       <c r="AD25" s="22">
         <v>0.82025269759291697</v>
       </c>
-      <c r="AE25" s="34">
+      <c r="AE25" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11962,7 +12402,7 @@
       <c r="AD26" s="22">
         <v>0.81047163740001804</v>
       </c>
-      <c r="AE26" s="34">
+      <c r="AE26" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12014,7 +12454,7 @@
       <c r="AD27" s="22">
         <v>0.814719292589692</v>
       </c>
-      <c r="AE27" s="34">
+      <c r="AE27" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12118,7 +12558,7 @@
       <c r="AD29" s="22">
         <v>0.80740706619374403</v>
       </c>
-      <c r="AE29" s="34">
+      <c r="AE29" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12170,7 +12610,7 @@
       <c r="AD30" s="22">
         <v>0.81185543488181</v>
       </c>
-      <c r="AE30" s="34">
+      <c r="AE30" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12222,7 +12662,7 @@
       <c r="AD31" s="22">
         <v>0.80568937829777398</v>
       </c>
-      <c r="AE31" s="34">
+      <c r="AE31" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12274,7 +12714,7 @@
       <c r="AD32" s="21">
         <v>0.80796838088315404</v>
       </c>
-      <c r="AE32" s="35">
+      <c r="AE32" s="34">
         <v>1</v>
       </c>
     </row>
@@ -13251,7 +13691,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13287,10 +13727,10 @@
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="30">
         <v>2.5661566034401698E-3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="30">
         <v>4.3976358761886201E-4</v>
       </c>
       <c r="D3" s="30">
@@ -13306,10 +13746,10 @@
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="30">
         <v>4.4436383422505601E-3</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="30">
         <v>1.74007275374245E-3</v>
       </c>
       <c r="D4" s="30">
@@ -13325,10 +13765,10 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="30">
         <v>2.2168936341923698E-3</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="30">
         <v>8.1676918145030298E-4</v>
       </c>
       <c r="D5" s="30">
@@ -13344,10 +13784,10 @@
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>-1.56911520813662E-13</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>-1.9483850278857899E-4</v>
       </c>
       <c r="D6" s="30">
@@ -13363,10 +13803,10 @@
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="30">
         <v>2.2168936341919999E-3</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="30">
         <v>2.8382670321701499E-4</v>
       </c>
       <c r="D7" s="30">
@@ -13382,10 +13822,10 @@
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="30">
         <v>-6.6315689740207998E-4</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="30">
         <v>-7.5847239535126198E-4</v>
       </c>
       <c r="D8" s="30">
@@ -13401,10 +13841,10 @@
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="30">
         <v>-4.67820487190721E-2</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="30">
         <v>-1.3959338653965201E-3</v>
       </c>
       <c r="D9" s="30">
@@ -13420,10 +13860,10 @@
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="30">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
         <v>-5.4600983178325097E-4</v>
       </c>
       <c r="D10" s="30">
@@ -13439,10 +13879,10 @@
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="30">
         <v>-8.7703597638944392E-3</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="30">
         <v>-5.5350610284413499E-3</v>
       </c>
       <c r="D11" s="30">
@@ -13458,10 +13898,10 @@
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="30">
         <v>-0.20094819278457601</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="30">
         <v>-0.42033151725641399</v>
       </c>
       <c r="D12" s="30">
@@ -13477,10 +13917,10 @@
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="30">
         <v>-5.8323414385334602E-2</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="30">
         <v>-1.22380206361024E-2</v>
       </c>
       <c r="D13" s="30">
@@ -13496,10 +13936,10 @@
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="30">
         <v>-5.6558039319499097E-3</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="30">
         <v>-8.4289301457955604E-4</v>
       </c>
       <c r="D14" s="30">
@@ -13515,10 +13955,10 @@
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="30">
         <v>-4.7375967880737601E-3</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="30">
         <v>-3.1768953138167398E-3</v>
       </c>
       <c r="D15" s="30">
@@ -13534,10 +13974,10 @@
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="30">
         <v>-6.4231935589180403E-2</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="30">
         <v>-3.2556230465377603E-2</v>
       </c>
       <c r="D16" s="30">
@@ -13553,10 +13993,10 @@
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="30">
         <v>-6.02702140323612E-2</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="30">
         <v>-1.58329741238552E-2</v>
       </c>
       <c r="D17" s="30">
@@ -13572,10 +14012,10 @@
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="30">
         <v>-2.2204460492503101E-16</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="30">
         <v>-9.2064908381764201E-4</v>
       </c>
       <c r="D18" s="30">
@@ -13591,10 +14031,10 @@
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="30">
         <v>3.3290305046341402E-3</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="30">
         <v>2.60684678403395E-4</v>
       </c>
       <c r="D19" s="30">
@@ -13610,10 +14050,10 @@
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="30">
         <v>-7.1376547705757597E-3</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="30">
         <v>-1.4755057040894599E-3</v>
       </c>
       <c r="D20" s="30">
@@ -13629,10 +14069,10 @@
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="32">
         <v>-5.04115226337589E-2</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="32">
         <v>-2.64881360031675E-2</v>
       </c>
       <c r="D21" s="30">
@@ -13648,10 +14088,10 @@
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="32">
         <v>-4.7377326565152501E-4</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <v>1.28180751065556E-4</v>
       </c>
       <c r="D22" s="30">
@@ -13667,10 +14107,10 @@
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="30">
         <v>-2.2204460492503101E-16</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="30">
         <v>-1.02039759648324E-4</v>
       </c>
       <c r="D23" s="30">
@@ -13686,10 +14126,10 @@
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="30">
         <v>2.6614523924003998E-3</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="30">
         <v>1.8991649446137399E-4</v>
       </c>
       <c r="D24" s="30">
@@ -13705,10 +14145,10 @@
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="30">
         <v>-2.2251718559690398E-2</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <v>-1.6549303866844198E-2</v>
       </c>
       <c r="D25" s="30">
@@ -14294,7 +14734,7 @@
       <c r="G26" s="22">
         <v>1.0563380281690101E-2</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
         <v>1</v>
       </c>
       <c r="I26" s="22">

--- a/pre_processed_data/Analysis.xlsx
+++ b/pre_processed_data/Analysis.xlsx
@@ -431,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,7 +513,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -573,10 +579,12 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,8 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
@@ -871,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -918,10 +925,10 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="67" t="s">
         <v>106</v>
       </c>
       <c r="P3" s="42" t="s">
@@ -1062,15 +1069,15 @@
       <c r="B6" s="47">
         <v>0.178651789044733</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="61">
         <f>C40*$F$44</f>
         <v>-14.245749712799199</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="61">
         <f t="shared" ref="D6:E6" si="0">D40*$F$44</f>
         <v>13.168131768538199</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="61">
         <f t="shared" si="0"/>
         <v>15.056045822043101</v>
       </c>
@@ -1080,13 +1087,13 @@
       <c r="H6" s="47">
         <v>0.38306047475021598</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="61">
         <v>-0.196287175937785</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="61">
         <v>8.6866693559898012E-2</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="61">
         <v>7.9569474126831019E-2</v>
       </c>
       <c r="P6" s="49" t="s">
@@ -1144,7 +1151,7 @@
         <v>21.938332447183701</v>
       </c>
       <c r="AL6" s="53">
-        <f>AI6/AJ6</f>
+        <f t="shared" ref="AL6:AL28" si="1">AI6/AJ6</f>
         <v>0.47807072402327611</v>
       </c>
     </row>
@@ -1155,16 +1162,16 @@
       <c r="B7" s="54">
         <v>1</v>
       </c>
-      <c r="C7" s="65">
-        <f t="shared" ref="C7:E7" si="1">C41*$F$44</f>
+      <c r="C7" s="61">
+        <f t="shared" ref="C7:E7" si="2">C41*$F$44</f>
         <v>-90.577729178057226</v>
       </c>
-      <c r="D7" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="65">
-        <f t="shared" si="1"/>
+      <c r="D7" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="61">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="48" t="s">
@@ -1173,13 +1180,13 @@
       <c r="H7" s="47">
         <v>0</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="61">
         <v>0.29213830538841501</v>
       </c>
-      <c r="J7" s="65">
-        <v>0</v>
-      </c>
-      <c r="K7" s="65">
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
         <v>0</v>
       </c>
       <c r="P7" s="48" t="s">
@@ -1237,7 +1244,7 @@
         <v>0.306834582623074</v>
       </c>
       <c r="AL7" s="53">
-        <f>AI7/AJ7</f>
+        <f t="shared" si="1"/>
         <v>12.770334355756233</v>
       </c>
     </row>
@@ -1248,16 +1255,16 @@
       <c r="B8" s="57">
         <v>0.298363636363636</v>
       </c>
-      <c r="C8" s="65">
-        <f t="shared" ref="C8:E8" si="2">C42*$F$44</f>
+      <c r="C8" s="61">
+        <f t="shared" ref="C8:E8" si="3">C42*$F$44</f>
         <v>-1.1345195611400016</v>
       </c>
-      <c r="D8" s="65">
-        <f t="shared" si="2"/>
+      <c r="D8" s="61">
+        <f t="shared" si="3"/>
         <v>-0.89797671342489727</v>
       </c>
-      <c r="E8" s="65">
-        <f t="shared" si="2"/>
+      <c r="E8" s="61">
+        <f t="shared" si="3"/>
         <v>7.2351713859910021</v>
       </c>
       <c r="G8" s="44" t="s">
@@ -1266,13 +1273,13 @@
       <c r="H8" s="57">
         <v>0.27123574578583098</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="61">
         <v>-0.27123574578583098</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="61">
         <v>0.188344141661968</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="61">
         <v>0.17335559136934603</v>
       </c>
       <c r="P8" s="44" t="s">
@@ -1330,7 +1337,7 @@
         <v>0.27035655885081</v>
       </c>
       <c r="AL8" s="53">
-        <f>AI8/AJ8</f>
+        <f t="shared" si="1"/>
         <v>2.5537083623046417</v>
       </c>
     </row>
@@ -1341,16 +1348,16 @@
       <c r="B9" s="47">
         <v>0.19426289034132099</v>
       </c>
-      <c r="C9" s="65">
-        <f t="shared" ref="C9:E9" si="3">C43*$F$44</f>
+      <c r="C9" s="61">
+        <f t="shared" ref="C9:E9" si="4">C43*$F$44</f>
         <v>-14.252916143347749</v>
       </c>
-      <c r="D9" s="65">
-        <f t="shared" si="3"/>
+      <c r="D9" s="61">
+        <f t="shared" si="4"/>
         <v>7.6711958199159991</v>
       </c>
-      <c r="E9" s="65">
-        <f t="shared" si="3"/>
+      <c r="E9" s="61">
+        <f t="shared" si="4"/>
         <v>8.9158559809736033</v>
       </c>
       <c r="G9" s="48" t="s">
@@ -1359,13 +1366,13 @@
       <c r="H9" s="47">
         <v>0</v>
       </c>
-      <c r="I9" s="65">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65">
-        <v>0</v>
-      </c>
-      <c r="K9" s="65">
+      <c r="I9" s="61">
+        <v>0</v>
+      </c>
+      <c r="J9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
         <v>0</v>
       </c>
       <c r="P9" s="48" t="s">
@@ -1423,7 +1430,7 @@
         <v>0.24715358979390201</v>
       </c>
       <c r="AL9" s="53">
-        <f>AI9/AJ9</f>
+        <f t="shared" si="1"/>
         <v>14.013803276795935</v>
       </c>
     </row>
@@ -1434,16 +1441,16 @@
       <c r="B10" s="47">
         <v>0.18634926538962199</v>
       </c>
-      <c r="C10" s="65">
-        <f t="shared" ref="C10:E10" si="4">C44*$F$44</f>
+      <c r="C10" s="61">
+        <f t="shared" ref="C10:E10" si="5">C44*$F$44</f>
         <v>-15.0286707891922</v>
       </c>
-      <c r="D10" s="65">
-        <f t="shared" si="4"/>
+      <c r="D10" s="61">
+        <f t="shared" si="5"/>
         <v>10.012794231589</v>
       </c>
-      <c r="E10" s="65">
-        <f t="shared" si="4"/>
+      <c r="E10" s="61">
+        <f t="shared" si="5"/>
         <v>8.9084524564714993</v>
       </c>
       <c r="G10" s="48" t="s">
@@ -1452,13 +1459,13 @@
       <c r="H10" s="47">
         <v>9.6317050668594403E-2</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="61">
         <v>-9.6317050668594403E-2</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="61">
         <v>2.63733863029606E-2</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="61">
         <v>0.38219992137739156</v>
       </c>
       <c r="P10" s="49" t="s">
@@ -1516,7 +1523,7 @@
         <v>0.21263930158212999</v>
       </c>
       <c r="AL10" s="53">
-        <f>AI10/AJ10</f>
+        <f t="shared" si="1"/>
         <v>5.8353094155313014</v>
       </c>
     </row>
@@ -1527,16 +1534,16 @@
       <c r="B11" s="47">
         <v>0.18465703971119099</v>
       </c>
-      <c r="C11" s="65">
-        <f t="shared" ref="C11:E11" si="5">C45*$F$44</f>
+      <c r="C11" s="61">
+        <f t="shared" ref="C11:E11" si="6">C45*$F$44</f>
         <v>-14.77634776377729</v>
       </c>
-      <c r="D11" s="65">
-        <f t="shared" si="5"/>
+      <c r="D11" s="61">
+        <f t="shared" si="6"/>
         <v>10.110985404686398</v>
       </c>
-      <c r="E11" s="65">
-        <f t="shared" si="5"/>
+      <c r="E11" s="61">
+        <f t="shared" si="6"/>
         <v>8.9728663937356981</v>
       </c>
       <c r="G11" s="48" t="s">
@@ -1545,13 +1552,13 @@
       <c r="H11" s="47">
         <v>0.38938825955384898</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="61">
         <v>-0.20294242440479998</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="61">
         <v>5.7344342016420025E-2</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="61">
         <v>6.2726789046359033E-2</v>
       </c>
       <c r="P11" s="44" t="s">
@@ -1609,7 +1616,7 @@
         <v>0.19330669309749801</v>
       </c>
       <c r="AL11" s="53">
-        <f>AI11/AJ11</f>
+        <f t="shared" si="1"/>
         <v>7.8107296074145447</v>
       </c>
     </row>
@@ -1620,16 +1627,16 @@
       <c r="B12" s="47">
         <v>0.18433179723502299</v>
       </c>
-      <c r="C12" s="65">
-        <f t="shared" ref="C12:E12" si="6">C46*$F$44</f>
+      <c r="C12" s="61">
+        <f t="shared" ref="C12:E12" si="7">C46*$F$44</f>
         <v>-15.067252683261609</v>
       </c>
-      <c r="D12" s="65">
-        <f t="shared" si="6"/>
+      <c r="D12" s="61">
+        <f t="shared" si="7"/>
         <v>9.8349148112096021</v>
       </c>
-      <c r="E12" s="65">
-        <f t="shared" si="6"/>
+      <c r="E12" s="61">
+        <f t="shared" si="7"/>
         <v>9.825691392511601</v>
       </c>
       <c r="G12" s="48" t="s">
@@ -1638,13 +1645,13 @@
       <c r="H12" s="47">
         <v>0.38075566920947101</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="61">
         <v>-0.21923616978840801</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="61">
         <v>6.7253896948391012E-2</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="61">
         <v>6.9632428970497984E-2</v>
       </c>
       <c r="P12" s="48" t="s">
@@ -1702,7 +1709,7 @@
         <v>0.140012445274206</v>
       </c>
       <c r="AL12" s="53">
-        <f>AI12/AJ12</f>
+        <f t="shared" si="1"/>
         <v>2.7142229218981111</v>
       </c>
     </row>
@@ -1713,16 +1720,16 @@
       <c r="B13" s="47">
         <v>0.18144252441773101</v>
       </c>
-      <c r="C13" s="65">
-        <f t="shared" ref="C13:E13" si="7">C47*$F$44</f>
+      <c r="C13" s="61">
+        <f t="shared" ref="C13:E13" si="8">C47*$F$44</f>
         <v>-14.331168329623573</v>
       </c>
-      <c r="D13" s="65">
-        <f t="shared" si="7"/>
+      <c r="D13" s="61">
+        <f t="shared" si="8"/>
         <v>10.1576343506797</v>
       </c>
-      <c r="E13" s="65">
-        <f t="shared" si="7"/>
+      <c r="E13" s="61">
+        <f t="shared" si="8"/>
         <v>10.8572159870081</v>
       </c>
       <c r="G13" s="48" t="s">
@@ -1731,13 +1738,13 @@
       <c r="H13" s="47">
         <v>0.38316128344292499</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="61">
         <v>-0.21308274336882599</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="61">
         <v>6.0586813014464003E-2</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="61">
         <v>6.6657965783244011E-2</v>
       </c>
       <c r="P13" s="49" t="s">
@@ -1795,7 +1802,7 @@
         <v>9.2064908381742E-2</v>
       </c>
       <c r="AL13" s="53">
-        <f>AI13/AJ13</f>
+        <f t="shared" si="1"/>
         <v>2.4118267082207033E-13</v>
       </c>
     </row>
@@ -1806,16 +1813,16 @@
       <c r="B14" s="57">
         <v>0.1787719955073</v>
       </c>
-      <c r="C14" s="65">
-        <f t="shared" ref="C14:E14" si="8">C48*$F$44</f>
+      <c r="C14" s="61">
+        <f t="shared" ref="C14:E14" si="9">C48*$F$44</f>
         <v>-14.895631065005391</v>
       </c>
-      <c r="D14" s="65">
-        <f t="shared" si="8"/>
+      <c r="D14" s="61">
+        <f t="shared" si="9"/>
         <v>10.291024748335397</v>
       </c>
-      <c r="E14" s="65">
-        <f t="shared" si="8"/>
+      <c r="E14" s="61">
+        <f t="shared" si="9"/>
         <v>9.0820480981728018</v>
       </c>
       <c r="G14" s="44" t="s">
@@ -1824,13 +1831,13 @@
       <c r="H14" s="57">
         <v>0.346875499467236</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="61">
         <v>-0.23797679092034801</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="61">
         <v>0.10149330858049699</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="61">
         <v>0.10331607642096402</v>
       </c>
       <c r="P14" s="44" t="s">
@@ -1888,7 +1895,7 @@
         <v>5.4600983178325097E-2</v>
       </c>
       <c r="AL14" s="53">
-        <f>AI14/AJ14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1899,16 +1906,16 @@
       <c r="B15" s="47">
         <v>0.175924205833178</v>
       </c>
-      <c r="C15" s="65">
-        <f t="shared" ref="C15:E15" si="9">C49*$F$44</f>
+      <c r="C15" s="61">
+        <f t="shared" ref="C15:E15" si="10">C49*$F$44</f>
         <v>-14.911703260337589</v>
       </c>
-      <c r="D15" s="65">
-        <f t="shared" si="9"/>
+      <c r="D15" s="61">
+        <f t="shared" si="10"/>
         <v>10.693399483324098</v>
       </c>
-      <c r="E15" s="65">
-        <f t="shared" si="9"/>
+      <c r="E15" s="61">
+        <f t="shared" si="10"/>
         <v>10.206807215909999</v>
       </c>
       <c r="G15" s="48" t="s">
@@ -1917,13 +1924,13 @@
       <c r="H15" s="47">
         <v>0.37113573208225797</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="61">
         <v>-0.23088341372159998</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="61">
         <v>8.2740344077188999E-2</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="61">
         <v>8.2972158837631038E-2</v>
       </c>
       <c r="P15" s="44" t="s">
@@ -1981,7 +1988,7 @@
         <v>1.9483850263166801E-2</v>
       </c>
       <c r="AL15" s="53">
-        <f>AI15/AJ15</f>
+        <f t="shared" si="1"/>
         <v>8.053414421066872E-10</v>
       </c>
     </row>
@@ -1992,16 +1999,16 @@
       <c r="B16" s="47">
         <v>0.175720014582573</v>
       </c>
-      <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="10">C50*$F$44</f>
+      <c r="C16" s="61">
+        <f t="shared" ref="C16:E16" si="11">C50*$F$44</f>
         <v>-13.624149824030349</v>
       </c>
-      <c r="D16" s="65">
-        <f t="shared" si="10"/>
+      <c r="D16" s="61">
+        <f t="shared" si="11"/>
         <v>10.7305748253166</v>
       </c>
-      <c r="E16" s="65">
-        <f t="shared" si="10"/>
+      <c r="E16" s="61">
+        <f t="shared" si="11"/>
         <v>10.387182215212002</v>
       </c>
       <c r="G16" s="48" t="s">
@@ -2010,13 +2017,13 @@
       <c r="H16" s="47">
         <v>0.37752758699532601</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="61">
         <v>-0.21810039164345901</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="61">
         <v>7.4189394537323983E-2</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="61">
         <v>7.3814661778266011E-2</v>
       </c>
       <c r="P16" s="48" t="s">
@@ -2074,7 +2081,7 @@
         <v>1.0203975964810199E-2</v>
       </c>
       <c r="AL16" s="53">
-        <f>AI16/AJ16</f>
+        <f t="shared" si="1"/>
         <v>2.1760596623345543E-12</v>
       </c>
     </row>
@@ -2085,16 +2092,16 @@
       <c r="B17" s="47">
         <v>0.175627240143369</v>
       </c>
-      <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="11">C51*$F$44</f>
+      <c r="C17" s="61">
+        <f t="shared" ref="C17:E17" si="12">C51*$F$44</f>
         <v>-14.454294685391941</v>
       </c>
-      <c r="D17" s="65">
-        <f t="shared" si="11"/>
+      <c r="D17" s="61">
+        <f t="shared" si="12"/>
         <v>11.137570536473101</v>
       </c>
-      <c r="E17" s="65">
-        <f t="shared" si="11"/>
+      <c r="E17" s="61">
+        <f t="shared" si="12"/>
         <v>10.5933586176447</v>
       </c>
       <c r="G17" s="48" t="s">
@@ -2103,13 +2110,13 @@
       <c r="H17" s="47">
         <v>0.38801909411303598</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="61">
         <v>-0.19951862421720198</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="61">
         <v>5.818510721391601E-2</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="61">
         <v>6.3759807773653032E-2</v>
       </c>
       <c r="Y17" s="44" t="s">
@@ -2146,7 +2153,7 @@
         <v>9.5315497949181194E-3</v>
       </c>
       <c r="AL17" s="53">
-        <f>AI17/AJ17</f>
+        <f t="shared" si="1"/>
         <v>0.87433227823006043</v>
       </c>
     </row>
@@ -2157,16 +2164,16 @@
       <c r="B18" s="47">
         <v>0.175390266299357</v>
       </c>
-      <c r="C18" s="65">
-        <f t="shared" ref="C18:E18" si="12">C52*$F$44</f>
+      <c r="C18" s="61">
+        <f t="shared" ref="C18:E18" si="13">C52*$F$44</f>
         <v>-14.2111488339728</v>
       </c>
-      <c r="D18" s="65">
-        <f t="shared" si="12"/>
+      <c r="D18" s="61">
+        <f t="shared" si="13"/>
         <v>10.547562986648401</v>
       </c>
-      <c r="E18" s="65">
-        <f t="shared" si="12"/>
+      <c r="E18" s="61">
+        <f t="shared" si="13"/>
         <v>9.5929009684967976</v>
       </c>
       <c r="G18" s="48" t="s">
@@ -2175,13 +2182,13 @@
       <c r="H18" s="47">
         <v>0.39563217737890399</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="61">
         <v>-0.17414323814910998</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="61">
         <v>5.502704170503403E-2</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="61">
         <v>4.883095944904603E-2</v>
       </c>
       <c r="Y18" s="44" t="s">
@@ -2218,7 +2225,7 @@
         <v>-6.0195401671708199E-2</v>
       </c>
       <c r="AL18" s="53">
-        <f>AI18/AJ18</f>
+        <f t="shared" si="1"/>
         <v>-3.6961342612918631</v>
       </c>
     </row>
@@ -2229,16 +2236,16 @@
       <c r="B19" s="47">
         <v>0.172969966629588</v>
       </c>
-      <c r="C19" s="65">
-        <f t="shared" ref="C19:E19" si="13">C53*$F$44</f>
+      <c r="C19" s="61">
+        <f t="shared" ref="C19:E19" si="14">C53*$F$44</f>
         <v>-14.580901966684259</v>
       </c>
-      <c r="D19" s="65">
-        <f t="shared" si="13"/>
+      <c r="D19" s="61">
+        <f t="shared" si="14"/>
         <v>11.942233401202499</v>
       </c>
-      <c r="E19" s="65">
-        <f t="shared" si="13"/>
+      <c r="E19" s="61">
+        <f t="shared" si="14"/>
         <v>11.139984329844301</v>
       </c>
       <c r="G19" s="48" t="s">
@@ -2247,13 +2254,13 @@
       <c r="H19" s="47">
         <v>0.35271069784695602</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="61">
         <v>-0.20711405123085602</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="61">
         <v>0.10582432957636095</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="61">
         <v>9.8553590938120994E-2</v>
       </c>
       <c r="P19" s="42" t="s">
@@ -2293,7 +2300,7 @@
         <v>-0.15607014742570099</v>
       </c>
       <c r="AL19" s="53">
-        <f>AI19/AJ19</f>
+        <f t="shared" si="1"/>
         <v>1.4912662584345546</v>
       </c>
     </row>
@@ -2304,16 +2311,16 @@
       <c r="B20" s="47">
         <v>0.17216937138593499</v>
       </c>
-      <c r="C20" s="65">
-        <f t="shared" ref="C20:E20" si="14">C54*$F$44</f>
+      <c r="C20" s="61">
+        <f t="shared" ref="C20:E20" si="15">C54*$F$44</f>
         <v>-14.607122766235481</v>
       </c>
-      <c r="D20" s="65">
-        <f t="shared" si="14"/>
+      <c r="D20" s="61">
+        <f t="shared" si="15"/>
         <v>11.267911346254902</v>
       </c>
-      <c r="E20" s="65">
-        <f t="shared" si="14"/>
+      <c r="E20" s="61">
+        <f t="shared" si="15"/>
         <v>11.346699225042803</v>
       </c>
       <c r="G20" s="48" t="s">
@@ -2322,13 +2329,13 @@
       <c r="H20" s="47">
         <v>0.373643348384816</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="61">
         <v>-0.19912830317577701</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="61">
         <v>7.6587968056676003E-2</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="61">
         <v>7.8863117793832982E-2</v>
       </c>
       <c r="Y20" s="44" t="s">
@@ -2365,7 +2372,7 @@
         <v>-0.32352987354530799</v>
       </c>
       <c r="AL20" s="53">
-        <f>AI20/AJ20</f>
+        <f t="shared" si="1"/>
         <v>1.58451003861183</v>
       </c>
     </row>
@@ -2376,16 +2383,16 @@
       <c r="B21" s="47">
         <v>0.17214771265845999</v>
       </c>
-      <c r="C21" s="65">
-        <f t="shared" ref="C21:E21" si="15">C55*$F$44</f>
+      <c r="C21" s="61">
+        <f t="shared" ref="C21:E21" si="16">C55*$F$44</f>
         <v>-14.787133544090638</v>
       </c>
-      <c r="D21" s="65">
-        <f t="shared" si="15"/>
+      <c r="D21" s="61">
+        <f t="shared" si="16"/>
         <v>10.603543217919</v>
       </c>
-      <c r="E21" s="65">
-        <f t="shared" si="15"/>
+      <c r="E21" s="61">
+        <f t="shared" si="16"/>
         <v>11.055034414273498</v>
       </c>
       <c r="G21" s="48" t="s">
@@ -2394,13 +2401,13 @@
       <c r="H21" s="47">
         <v>0.38775454318824898</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="61">
         <v>-0.20740398477939298</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="61">
         <v>6.2503528904828021E-2</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="61">
         <v>6.2548053389641034E-2</v>
       </c>
       <c r="Y21" s="44" t="s">
@@ -2437,7 +2444,7 @@
         <v>-0.48129109173703499</v>
       </c>
       <c r="AL21" s="53">
-        <f>AI21/AJ21</f>
+        <f t="shared" si="1"/>
         <v>6.7099902764896973</v>
       </c>
     </row>
@@ -2448,16 +2455,16 @@
       <c r="B22" s="47">
         <v>0.17182067703568099</v>
       </c>
-      <c r="C22" s="65">
-        <f t="shared" ref="C22:E22" si="16">C56*$F$44</f>
+      <c r="C22" s="61">
+        <f t="shared" ref="C22:E22" si="17">C56*$F$44</f>
         <v>-14.972425629061171</v>
       </c>
-      <c r="D22" s="65">
-        <f t="shared" si="16"/>
+      <c r="D22" s="61">
+        <f t="shared" si="17"/>
         <v>11.861253596070803</v>
       </c>
-      <c r="E22" s="65">
-        <f t="shared" si="16"/>
+      <c r="E22" s="61">
+        <f t="shared" si="17"/>
         <v>10.986437087608902</v>
       </c>
       <c r="G22" s="48" t="s">
@@ -2466,13 +2473,13 @@
       <c r="H22" s="47">
         <v>0.378221307270945</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="61">
         <v>-0.21566906975071701</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="61">
         <v>7.2892449036184026E-2</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="61">
         <v>7.6640257567313019E-2</v>
       </c>
       <c r="Y22" s="44" t="s">
@@ -2509,7 +2516,7 @@
         <v>-0.56621490664862906</v>
       </c>
       <c r="AL22" s="53">
-        <f>AI22/AJ22</f>
+        <f t="shared" si="1"/>
         <v>4.8374294662455632</v>
       </c>
     </row>
@@ -2520,16 +2527,16 @@
       <c r="B23" s="57">
         <v>0.170228863249479</v>
       </c>
-      <c r="C23" s="65">
-        <f t="shared" ref="C23:E23" si="17">C57*$F$44</f>
+      <c r="C23" s="61">
+        <f t="shared" ref="C23:E23" si="18">C57*$F$44</f>
         <v>-14.624630510994418</v>
       </c>
-      <c r="D23" s="65">
-        <f t="shared" si="17"/>
+      <c r="D23" s="61">
+        <f t="shared" si="18"/>
         <v>11.644873835431103</v>
       </c>
-      <c r="E23" s="65">
-        <f t="shared" si="17"/>
+      <c r="E23" s="61">
+        <f t="shared" si="18"/>
         <v>10.6859486444908</v>
       </c>
       <c r="G23" s="44" t="s">
@@ -2538,13 +2545,13 @@
       <c r="H23" s="57">
         <v>0.38538439868611202</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="61">
         <v>-0.19387231009413403</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="61">
         <v>6.8384449060448993E-2</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="61">
         <v>6.5081125325722966E-2</v>
       </c>
       <c r="Y23" s="44" t="s">
@@ -2581,7 +2588,7 @@
         <v>-0.57024146928462305</v>
       </c>
       <c r="AL23" s="53">
-        <f>AI23/AJ23</f>
+        <f t="shared" si="1"/>
         <v>1.3445712725277066</v>
       </c>
     </row>
@@ -2592,16 +2599,16 @@
       <c r="B24" s="47">
         <v>0.16774911857487401</v>
       </c>
-      <c r="C24" s="65">
-        <f t="shared" ref="C24:E24" si="18">C58*$F$44</f>
+      <c r="C24" s="61">
+        <f t="shared" ref="C24:E24" si="19">C58*$F$44</f>
         <v>-13.630487725860352</v>
       </c>
-      <c r="D24" s="65">
-        <f t="shared" si="18"/>
+      <c r="D24" s="61">
+        <f t="shared" si="19"/>
         <v>11.955885509008501</v>
       </c>
-      <c r="E24" s="65">
-        <f t="shared" si="18"/>
+      <c r="E24" s="61">
+        <f t="shared" si="19"/>
         <v>11.478419042311799</v>
       </c>
       <c r="G24" s="48" t="s">
@@ -2610,13 +2617,13 @@
       <c r="H24" s="47">
         <v>0.377508778288555</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="61">
         <v>-0.22360285011570299</v>
       </c>
-      <c r="J24" s="65">
+      <c r="J24" s="61">
         <v>7.2802075991046988E-2</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="61">
         <v>7.059531984700701E-2</v>
       </c>
       <c r="Y24" s="44" t="s">
@@ -2653,7 +2660,7 @@
         <v>-2.3923386630591299</v>
       </c>
       <c r="AL24" s="53">
-        <f>AI24/AJ24</f>
+        <f t="shared" si="1"/>
         <v>1.9031736558484371</v>
       </c>
     </row>
@@ -2664,16 +2671,16 @@
       <c r="B25" s="47">
         <v>0.164950349393159</v>
       </c>
-      <c r="C25" s="65">
-        <f t="shared" ref="C25:E25" si="19">C59*$F$44</f>
+      <c r="C25" s="61">
+        <f t="shared" ref="C25:E25" si="20">C59*$F$44</f>
         <v>-14.487668456811301</v>
       </c>
-      <c r="D25" s="65">
-        <f t="shared" si="19"/>
+      <c r="D25" s="61">
+        <f t="shared" si="20"/>
         <v>12.579854928525503</v>
       </c>
-      <c r="E25" s="65">
-        <f t="shared" si="19"/>
+      <c r="E25" s="61">
+        <f t="shared" si="20"/>
         <v>12.529620608182201</v>
       </c>
       <c r="G25" s="48" t="s">
@@ -2682,13 +2689,13 @@
       <c r="H25" s="47">
         <v>0.20986563660865201</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="61">
         <v>-0.17104719143410391</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="61">
         <v>0.181302990226445</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="61">
         <v>0.17535861574689196</v>
       </c>
       <c r="Y25" s="44" t="s">
@@ -2725,7 +2732,7 @@
         <v>-3.16757051238028</v>
       </c>
       <c r="AL25" s="53">
-        <f>AI25/AJ25</f>
+        <f t="shared" si="1"/>
         <v>1.9729537072017225</v>
       </c>
     </row>
@@ -2736,16 +2743,16 @@
       <c r="B26" s="47">
         <v>0.16210758215531401</v>
       </c>
-      <c r="C26" s="65">
-        <f t="shared" ref="C26:E26" si="20">C60*$F$44</f>
+      <c r="C26" s="61">
+        <f t="shared" ref="C26:E26" si="21">C60*$F$44</f>
         <v>-14.340041416124111</v>
       </c>
-      <c r="D26" s="65">
-        <f t="shared" si="20"/>
+      <c r="D26" s="61">
+        <f t="shared" si="21"/>
         <v>12.149335596483702</v>
       </c>
-      <c r="E26" s="65">
-        <f t="shared" si="20"/>
+      <c r="E26" s="61">
+        <f t="shared" si="21"/>
         <v>12.151232734694799</v>
       </c>
       <c r="G26" s="48" t="s">
@@ -2754,13 +2761,13 @@
       <c r="H26" s="47">
         <v>0.375833736333341</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="61">
         <v>-0.22283898137546698</v>
       </c>
-      <c r="J26" s="65">
+      <c r="J26" s="61">
         <v>7.1726758078354991E-2</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="61">
         <v>7.6375899059904995E-2</v>
       </c>
       <c r="Y26" s="44" t="s">
@@ -2797,7 +2804,7 @@
         <v>-4.4437239908506001</v>
       </c>
       <c r="AL26" s="53">
-        <f>AI26/AJ26</f>
+        <f t="shared" si="1"/>
         <v>3.806626194225466</v>
       </c>
     </row>
@@ -2808,16 +2815,16 @@
       <c r="B27" s="47">
         <v>0.15734720416124801</v>
       </c>
-      <c r="C27" s="65">
-        <f t="shared" ref="C27:E27" si="21">C61*$F$44</f>
+      <c r="C27" s="61">
+        <f t="shared" ref="C27:E27" si="22">C61*$F$44</f>
         <v>-13.541737959984451</v>
       </c>
-      <c r="D27" s="65">
-        <f t="shared" si="21"/>
+      <c r="D27" s="61">
+        <f t="shared" si="22"/>
         <v>13.217976068322098</v>
       </c>
-      <c r="E27" s="65">
-        <f t="shared" si="21"/>
+      <c r="E27" s="61">
+        <f t="shared" si="22"/>
         <v>11.601685113829099</v>
       </c>
       <c r="G27" s="48" t="s">
@@ -2826,13 +2833,13 @@
       <c r="H27" s="47">
         <v>0.35745037140067198</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="61">
         <v>-0.25630462049192498</v>
       </c>
-      <c r="J27" s="65">
+      <c r="J27" s="61">
         <v>9.4740172553331004E-2</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="61">
         <v>9.5719793619731042E-2</v>
       </c>
       <c r="Y27" s="44" t="s">
@@ -2869,7 +2876,7 @@
         <v>-4.5386114853675501</v>
       </c>
       <c r="AL27" s="53">
-        <f>AI27/AJ27</f>
+        <f t="shared" si="1"/>
         <v>33.513083877926761</v>
       </c>
     </row>
@@ -2880,16 +2887,16 @@
       <c r="B28" s="47">
         <v>0.15038702543309901</v>
       </c>
-      <c r="C28" s="65">
-        <f t="shared" ref="C28:E28" si="22">C62*$F$44</f>
+      <c r="C28" s="61">
+        <f t="shared" ref="C28:E28" si="23">C62*$F$44</f>
         <v>-14.004970225573231</v>
       </c>
-      <c r="D28" s="65">
-        <f t="shared" si="22"/>
+      <c r="D28" s="61">
+        <f t="shared" si="23"/>
         <v>13.833874155353698</v>
       </c>
-      <c r="E28" s="65">
-        <f t="shared" si="22"/>
+      <c r="E28" s="61">
+        <f t="shared" si="23"/>
         <v>13.625011004124499</v>
       </c>
       <c r="G28" s="48" t="s">
@@ -2898,13 +2905,13 @@
       <c r="H28" s="47">
         <v>0.36412780929760302</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="61">
         <v>-0.21767335441107602</v>
       </c>
-      <c r="J28" s="65">
+      <c r="J28" s="61">
         <v>8.1558345490408968E-2</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="61">
         <v>8.9415023820063E-2</v>
       </c>
       <c r="Y28" s="44" t="s">
@@ -2941,7 +2948,7 @@
         <v>-4.60853937492322</v>
       </c>
       <c r="AL28" s="53">
-        <f>AI28/AJ28</f>
+        <f t="shared" si="1"/>
         <v>4.7657555187706899</v>
       </c>
     </row>
@@ -2952,16 +2959,16 @@
       <c r="B29" s="47">
         <v>0.145605920444033</v>
       </c>
-      <c r="C29" s="65">
-        <f t="shared" ref="C29:E29" si="23">C63*$F$44</f>
+      <c r="C29" s="61">
+        <f t="shared" ref="C29:E29" si="24">C63*$F$44</f>
         <v>-12.39380398905006</v>
       </c>
-      <c r="D29" s="65">
-        <f t="shared" si="23"/>
+      <c r="D29" s="61">
+        <f t="shared" si="24"/>
         <v>13.907909710630797</v>
       </c>
-      <c r="E29" s="65">
-        <f t="shared" si="23"/>
+      <c r="E29" s="61">
+        <f t="shared" si="24"/>
         <v>15.503102223112601</v>
       </c>
       <c r="G29" s="48" t="s">
@@ -2970,13 +2977,13 @@
       <c r="H29" s="47">
         <v>0.45753991832353902</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="61">
         <v>-5.1696546894260398E-3</v>
       </c>
-      <c r="J29" s="65">
+      <c r="J29" s="61">
         <v>2.5456437079059979E-2</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="61">
         <v>-4.0635182107980339E-3</v>
       </c>
       <c r="Y29" s="44" t="s">
@@ -3008,16 +3015,16 @@
       <c r="B30" s="47">
         <v>0.14363093014568501</v>
       </c>
-      <c r="C30" s="65">
-        <f t="shared" ref="C30:E30" si="24">C64*$F$44</f>
+      <c r="C30" s="61">
+        <f t="shared" ref="C30:E30" si="25">C64*$F$44</f>
         <v>-12.687624065378921</v>
       </c>
-      <c r="D30" s="65">
-        <f t="shared" si="24"/>
+      <c r="D30" s="61">
+        <f t="shared" si="25"/>
         <v>13.225054022190596</v>
       </c>
-      <c r="E30" s="65">
-        <f t="shared" si="24"/>
+      <c r="E30" s="61">
+        <f t="shared" si="25"/>
         <v>14.063118639089101</v>
       </c>
       <c r="G30" s="48" t="s">
@@ -3026,13 +3033,13 @@
       <c r="H30" s="47">
         <v>0.38030056637717502</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="61">
         <v>-0.20093696667773603</v>
       </c>
-      <c r="J30" s="65">
+      <c r="J30" s="61">
         <v>6.4339879897847008E-2</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="61">
         <v>6.9121556505988002E-2</v>
       </c>
       <c r="Y30" s="44" t="s">
@@ -3064,16 +3071,16 @@
       <c r="B31" s="47">
         <v>0.13989253288864101</v>
       </c>
-      <c r="C31" s="65">
-        <f t="shared" ref="C31:E31" si="25">C65*$F$44</f>
+      <c r="C31" s="61">
+        <f t="shared" ref="C31:E31" si="26">C65*$F$44</f>
         <v>-12.78895321384535</v>
       </c>
-      <c r="D31" s="65">
-        <f t="shared" si="25"/>
+      <c r="D31" s="61">
+        <f t="shared" si="26"/>
         <v>14.2558518597943</v>
       </c>
-      <c r="E31" s="65">
-        <f t="shared" si="25"/>
+      <c r="E31" s="61">
+        <f t="shared" si="26"/>
         <v>13.882617108779399</v>
       </c>
       <c r="G31" s="48" t="s">
@@ -3082,13 +3089,13 @@
       <c r="H31" s="47">
         <v>0.35071510667658901</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="61">
         <v>-0.222364143018634</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="61">
         <v>0.10034715691759399</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="61">
         <v>9.624225669870401E-2</v>
       </c>
       <c r="Y31" s="44" t="s">
@@ -3123,16 +3130,16 @@
       <c r="B32" s="47">
         <v>7.9962894248608501E-2</v>
       </c>
-      <c r="C32" s="65">
-        <f t="shared" ref="C32:E32" si="26">C66*$F$44</f>
+      <c r="C32" s="61">
+        <f t="shared" ref="C32:E32" si="27">C66*$F$44</f>
         <v>-7.9962894248608505</v>
       </c>
-      <c r="D32" s="65">
-        <f t="shared" si="26"/>
+      <c r="D32" s="61">
+        <f t="shared" si="27"/>
         <v>19.12609205253715</v>
       </c>
-      <c r="E32" s="65">
-        <f t="shared" si="26"/>
+      <c r="E32" s="61">
+        <f t="shared" si="27"/>
         <v>61.697955179455654</v>
       </c>
       <c r="G32" s="48" t="s">
@@ -3141,13 +3148,13 @@
       <c r="H32" s="47">
         <v>0.38050271045420703</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="61">
         <v>-0.20695715447495502</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="61">
         <v>6.9257589485578974E-2</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="61">
         <v>7.1860257501579983E-2</v>
       </c>
       <c r="Y32" s="44" t="s">
@@ -3179,16 +3186,16 @@
       <c r="B33" s="47">
         <v>4.6175788910679201E-2</v>
       </c>
-      <c r="C33" s="65">
-        <f t="shared" ref="C33:E33" si="27">C67*$F$44</f>
+      <c r="C33" s="61">
+        <f t="shared" ref="C33:E33" si="28">C67*$F$44</f>
         <v>-4.4666639693550367</v>
       </c>
-      <c r="D33" s="65">
-        <f t="shared" si="27"/>
+      <c r="D33" s="61">
+        <f t="shared" si="28"/>
         <v>13.507309282129382</v>
       </c>
-      <c r="E33" s="65">
-        <f t="shared" si="27"/>
+      <c r="E33" s="61">
+        <f t="shared" si="28"/>
         <v>14.23966827943218</v>
       </c>
       <c r="G33" s="48" t="s">
@@ -3197,13 +3204,13 @@
       <c r="H33" s="47">
         <v>0.36854947288399598</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="61">
         <v>-0.23306069157825099</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="61">
         <v>8.2205068342366017E-2</v>
       </c>
-      <c r="K33" s="65">
+      <c r="K33" s="61">
         <v>8.2195960833900017E-2</v>
       </c>
       <c r="Y33" s="44" t="s">
@@ -3235,16 +3242,16 @@
       <c r="B34" s="47">
         <v>9.3646713183988192E-3</v>
       </c>
-      <c r="C34" s="65">
-        <f t="shared" ref="C34:E34" si="28">C68*$F$44</f>
+      <c r="C34" s="61">
+        <f t="shared" ref="C34:E34" si="29">C68*$F$44</f>
         <v>-0.93646713183988195</v>
       </c>
-      <c r="D34" s="65">
-        <f t="shared" si="28"/>
+      <c r="D34" s="61">
+        <f t="shared" si="29"/>
         <v>63.562328495360418</v>
       </c>
-      <c r="E34" s="65">
-        <f t="shared" si="28"/>
+      <c r="E34" s="61">
+        <f t="shared" si="29"/>
         <v>97.534870447777919</v>
       </c>
       <c r="G34" s="48" t="s">
@@ -3253,13 +3260,13 @@
       <c r="H34" s="47">
         <v>0.380581779723702</v>
       </c>
-      <c r="I34" s="65">
+      <c r="I34" s="61">
         <v>-0.185851291382299</v>
       </c>
-      <c r="J34" s="65">
+      <c r="J34" s="61">
         <v>6.8216885120572002E-2</v>
       </c>
-      <c r="K34" s="65">
+      <c r="K34" s="61">
         <v>6.9887065377680024E-2</v>
       </c>
       <c r="Y34" s="48" t="s">
@@ -3291,16 +3298,16 @@
       <c r="B35" s="47">
         <v>0</v>
       </c>
-      <c r="C35" s="65">
-        <f t="shared" ref="C35:E35" si="29">C69*$F$44</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="65">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="65">
-        <f t="shared" si="29"/>
+      <c r="C35" s="61">
+        <f t="shared" ref="C35:E35" si="30">C69*$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="61">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G35" s="48" t="s">
@@ -3309,128 +3316,128 @@
       <c r="H35" s="47">
         <v>0.37722451137045099</v>
       </c>
-      <c r="I35" s="65">
+      <c r="I35" s="61">
         <v>-0.23022733814822599</v>
       </c>
-      <c r="J35" s="65">
+      <c r="J35" s="61">
         <v>7.259609920082799E-2</v>
       </c>
-      <c r="K35" s="65">
+      <c r="K35" s="61">
         <v>7.6737779778277004E-2</v>
       </c>
-      <c r="Y35" s="61" t="s">
+      <c r="Y35" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="G36" s="61" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="G36" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="Y36" s="62" t="s">
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="Y36" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="G37" s="62" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="G37" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="Y37" s="62" t="s">
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="Y37" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="G38" s="62" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="G38" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="66">
+      <c r="C40" s="62">
         <v>-0.14245749712799199</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="62">
         <v>0.13168131768538199</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="62">
         <v>0.15056045822043101</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="66">
+      <c r="C41" s="62">
         <v>-0.90577729178057231</v>
       </c>
-      <c r="D41" s="66">
-        <v>0</v>
-      </c>
-      <c r="E41" s="66">
+      <c r="D41" s="62">
+        <v>0</v>
+      </c>
+      <c r="E41" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C42" s="66">
+      <c r="C42" s="62">
         <v>-1.1345195611400016E-2</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="62">
         <v>-8.9797671342489727E-3</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="62">
         <v>7.2351713859910016E-2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C43" s="66">
+      <c r="C43" s="62">
         <v>-0.14252916143347749</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="62">
         <v>7.6711958199159991E-2</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="62">
         <v>8.9158559809736027E-2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C44" s="66">
+      <c r="C44" s="62">
         <v>-0.150286707891922</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="62">
         <v>0.10012794231589001</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="62">
         <v>8.9084524564714995E-2</v>
       </c>
       <c r="F44" s="42">
@@ -3438,277 +3445,277 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C45" s="66">
+      <c r="C45" s="62">
         <v>-0.14776347763777289</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="62">
         <v>0.10110985404686398</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="62">
         <v>8.9728663937356984E-2</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C46" s="66">
+      <c r="C46" s="62">
         <v>-0.15067252683261609</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="62">
         <v>9.8349148112096024E-2</v>
       </c>
-      <c r="E46" s="66">
+      <c r="E46" s="62">
         <v>9.8256913925116013E-2</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C47" s="66">
+      <c r="C47" s="62">
         <v>-0.14331168329623573</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="62">
         <v>0.10157634350679701</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="62">
         <v>0.10857215987008101</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C48" s="66">
+      <c r="C48" s="62">
         <v>-0.14895631065005391</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="62">
         <v>0.10291024748335398</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="62">
         <v>9.0820480981728013E-2</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="66">
+      <c r="C49" s="62">
         <v>-0.14911703260337589</v>
       </c>
-      <c r="D49" s="66">
+      <c r="D49" s="62">
         <v>0.10693399483324098</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="62">
         <v>0.10206807215909999</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="66">
+      <c r="C50" s="62">
         <v>-0.13624149824030349</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="62">
         <v>0.10730574825316599</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="62">
         <v>0.10387182215212001</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="66">
+      <c r="C51" s="62">
         <v>-0.14454294685391941</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="62">
         <v>0.11137570536473101</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="62">
         <v>0.10593358617644699</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52" s="66">
+      <c r="C52" s="62">
         <v>-0.142111488339728</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="62">
         <v>0.10547562986648401</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="62">
         <v>9.5929009684967981E-2</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53" s="66">
+      <c r="C53" s="62">
         <v>-0.14580901966684259</v>
       </c>
-      <c r="D53" s="66">
+      <c r="D53" s="62">
         <v>0.11942233401202498</v>
       </c>
-      <c r="E53" s="66">
+      <c r="E53" s="62">
         <v>0.11139984329844302</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C54" s="66">
+      <c r="C54" s="62">
         <v>-0.14607122766235481</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="62">
         <v>0.11267911346254902</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E54" s="62">
         <v>0.11346699225042803</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C55" s="66">
+      <c r="C55" s="62">
         <v>-0.14787133544090639</v>
       </c>
-      <c r="D55" s="66">
+      <c r="D55" s="62">
         <v>0.10603543217919001</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="62">
         <v>0.11055034414273499</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="66">
+      <c r="C56" s="62">
         <v>-0.1497242562906117</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D56" s="62">
         <v>0.11861253596070803</v>
       </c>
-      <c r="E56" s="66">
+      <c r="E56" s="62">
         <v>0.10986437087608902</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="66">
+      <c r="C57" s="62">
         <v>-0.14624630510994419</v>
       </c>
-      <c r="D57" s="66">
+      <c r="D57" s="62">
         <v>0.11644873835431102</v>
       </c>
-      <c r="E57" s="66">
+      <c r="E57" s="62">
         <v>0.106859486444908</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C58" s="66">
+      <c r="C58" s="62">
         <v>-0.13630487725860352</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="62">
         <v>0.11955885509008501</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="62">
         <v>0.11478419042311799</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="66">
+      <c r="C59" s="62">
         <v>-0.14487668456811301</v>
       </c>
-      <c r="D59" s="66">
+      <c r="D59" s="62">
         <v>0.12579854928525502</v>
       </c>
-      <c r="E59" s="66">
+      <c r="E59" s="62">
         <v>0.12529620608182201</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="66">
+      <c r="C60" s="62">
         <v>-0.14340041416124111</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="62">
         <v>0.12149335596483701</v>
       </c>
-      <c r="E60" s="66">
+      <c r="E60" s="62">
         <v>0.121512327346948</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="66">
+      <c r="C61" s="62">
         <v>-0.13541737959984451</v>
       </c>
-      <c r="D61" s="66">
+      <c r="D61" s="62">
         <v>0.13217976068322099</v>
       </c>
-      <c r="E61" s="66">
+      <c r="E61" s="62">
         <v>0.11601685113829099</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C62" s="66">
+      <c r="C62" s="62">
         <v>-0.14004970225573232</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="62">
         <v>0.13833874155353698</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="62">
         <v>0.13625011004124499</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="66">
+      <c r="C63" s="62">
         <v>-0.1239380398905006</v>
       </c>
-      <c r="D63" s="66">
+      <c r="D63" s="62">
         <v>0.13907909710630798</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="62">
         <v>0.155031022231126</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="66">
+      <c r="C64" s="62">
         <v>-0.12687624065378922</v>
       </c>
-      <c r="D64" s="66">
+      <c r="D64" s="62">
         <v>0.13225054022190597</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="62">
         <v>0.14063118639089101</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C65" s="66">
+      <c r="C65" s="62">
         <v>-0.1278895321384535</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D65" s="62">
         <v>0.142558518597943</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="62">
         <v>0.13882617108779399</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C66" s="66">
+      <c r="C66" s="62">
         <v>-7.9962894248608501E-2</v>
       </c>
-      <c r="D66" s="66">
+      <c r="D66" s="62">
         <v>0.1912609205253715</v>
       </c>
-      <c r="E66" s="66">
+      <c r="E66" s="62">
         <v>0.61697955179455655</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C67" s="66">
+      <c r="C67" s="62">
         <v>-4.4666639693550364E-2</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="62">
         <v>0.13507309282129382</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="62">
         <v>0.1423966827943218</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C68" s="66">
+      <c r="C68" s="62">
         <v>-9.3646713183988192E-3</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="62">
         <v>0.63562328495360421</v>
       </c>
-      <c r="E68" s="66">
+      <c r="E68" s="62">
         <v>0.97534870447777922</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C69" s="66">
-        <v>0</v>
-      </c>
-      <c r="D69" s="66">
-        <v>0</v>
-      </c>
-      <c r="E69" s="66">
+      <c r="C69" s="62">
+        <v>0</v>
+      </c>
+      <c r="D69" s="62">
+        <v>0</v>
+      </c>
+      <c r="E69" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4265,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9824,7 +9831,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10240,12 +10247,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
@@ -10260,12 +10267,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
@@ -10280,12 +10287,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>

--- a/pre_processed_data/Analysis.xlsx
+++ b/pre_processed_data/Analysis.xlsx
@@ -581,6 +581,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,7 +594,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,19 +925,19 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AH3" s="63" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3325,66 +3325,66 @@
       <c r="K35" s="61">
         <v>7.6737779778277004E-2</v>
       </c>
-      <c r="Y35" s="64" t="s">
+      <c r="Y35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="G36" s="64" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="G36" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="Y36" s="63" t="s">
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="Y36" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="G37" s="63" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="G37" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="Y37" s="63" t="s">
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="Y37" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="G38" s="63" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="G38" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C40" s="62">
@@ -10247,12 +10247,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
@@ -10267,12 +10267,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
@@ -10287,12 +10287,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
@@ -13698,7 +13698,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
